--- a/profesionales.xlsx
+++ b/profesionales.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Descargas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="498">
   <si>
     <t>specialty</t>
   </si>
@@ -1210,9 +1215,6 @@
   </si>
   <si>
     <t>VTE, LOPEZ 3050</t>
-  </si>
-  <si>
-    <t>NEONATOLOGIA /  PERINATOLOGIA</t>
   </si>
   <si>
     <t>CAPRIATA MARIA ALEJANDRA</t>
@@ -1521,7 +1523,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1656,6 +1658,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1703,7 +1708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1738,7 +1743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1949,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,10 +6403,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>112</v>
@@ -6415,13 +6420,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B265" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="C265" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>8</v>
@@ -6432,7 +6437,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>146</v>
@@ -6449,7 +6454,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>156</v>
@@ -6466,7 +6471,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>162</v>
@@ -6483,10 +6488,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>149</v>
@@ -6500,10 +6505,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>404</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>103</v>
@@ -6517,10 +6522,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>339</v>
@@ -6534,10 +6539,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>94</v>
@@ -6551,10 +6556,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>101</v>
@@ -6568,10 +6573,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>339</v>
@@ -6585,13 +6590,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B275" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>8</v>
@@ -6602,10 +6607,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B276" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>293</v>
@@ -6619,13 +6624,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B277" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C277" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>8</v>
@@ -6636,10 +6641,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>179</v>
@@ -6653,10 +6658,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>103</v>
@@ -6670,10 +6675,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>103</v>
@@ -6687,13 +6692,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="C281" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>8</v>
@@ -6704,13 +6709,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B282" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C282" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>8</v>
@@ -6721,10 +6726,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B283" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>131</v>
@@ -6738,10 +6743,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>131</v>
@@ -6755,10 +6760,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>247</v>
@@ -6770,13 +6775,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>279</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>8</v>
@@ -6787,7 +6792,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>280</v>
@@ -6804,7 +6809,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>281</v>
@@ -6821,7 +6826,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>282</v>
@@ -6838,7 +6843,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>284</v>
@@ -6855,7 +6860,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>285</v>
@@ -6872,7 +6877,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>286</v>
@@ -6889,7 +6894,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>287</v>
@@ -6906,7 +6911,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>288</v>
@@ -6923,7 +6928,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>289</v>
@@ -6940,10 +6945,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>153</v>
@@ -6957,7 +6962,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>294</v>
@@ -6974,10 +6979,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>206</v>
@@ -6991,7 +6996,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>296</v>
@@ -7008,7 +7013,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>298</v>
@@ -7025,7 +7030,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>297</v>
@@ -7042,7 +7047,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>299</v>
@@ -7059,7 +7064,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>301</v>
@@ -7076,7 +7081,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>302</v>
@@ -7093,13 +7098,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>303</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>8</v>
@@ -7110,13 +7115,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B306" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="C306" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>8</v>
@@ -7127,13 +7132,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B307" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C307" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>8</v>
@@ -7144,13 +7149,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B308" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C308" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>8</v>
@@ -7161,13 +7166,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B309" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C309" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="C309" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>8</v>
@@ -7178,13 +7183,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B310" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C310" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>8</v>
@@ -7195,13 +7200,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>8</v>
@@ -7212,13 +7217,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B312" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C312" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>8</v>
@@ -7229,13 +7234,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B313" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C313" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>8</v>
@@ -7246,13 +7251,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B314" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C314" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>8</v>
@@ -7263,13 +7268,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>8</v>
@@ -7280,13 +7285,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>8</v>
@@ -7297,10 +7302,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B317" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>25</v>
@@ -7314,10 +7319,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>25</v>
@@ -7331,10 +7336,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>131</v>
@@ -7348,13 +7353,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B320" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="C320" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>8</v>
@@ -7365,13 +7370,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>8</v>
@@ -7382,13 +7387,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>8</v>
@@ -7399,13 +7404,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B323" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C323" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="C323" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>8</v>
@@ -7416,10 +7421,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>34</v>
@@ -7433,10 +7438,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>170</v>
@@ -7450,13 +7455,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B326" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C326" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>8</v>
@@ -7467,13 +7472,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B327" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C327" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="C327" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>8</v>
@@ -7484,10 +7489,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>388</v>
@@ -7501,13 +7506,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B329" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>8</v>
@@ -7518,13 +7523,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>8</v>
@@ -7535,13 +7540,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>8</v>
@@ -7552,10 +7557,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B332" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>196</v>
@@ -7569,13 +7574,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B333" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C333" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>8</v>
@@ -7586,13 +7591,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B334" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C334" s="9" t="s">
         <v>479</v>
-      </c>
-      <c r="C334" s="9" t="s">
-        <v>480</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>8</v>
@@ -7603,13 +7608,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B335" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B335" s="6" t="s">
+      <c r="C335" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>8</v>
@@ -7620,10 +7625,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>242</v>
@@ -7637,13 +7642,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B337" s="6" t="s">
-        <v>486</v>
-      </c>
       <c r="C337" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>8</v>
@@ -7654,13 +7659,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B338" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C338" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>8</v>
@@ -7671,10 +7676,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>179</v>
@@ -7688,10 +7693,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>82</v>
@@ -7705,10 +7710,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>103</v>
@@ -7722,13 +7727,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B342" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="C342" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>8</v>
@@ -7739,10 +7744,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>260</v>
@@ -7756,10 +7761,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>131</v>
@@ -7773,10 +7778,10 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>131</v>
@@ -7791,6 +7796,7 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/profesionales.xlsx
+++ b/profesionales.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="498">
   <si>
     <t>specialty</t>
   </si>
@@ -66,9 +66,6 @@
     <t>BIBILONI ANA MARIA</t>
   </si>
   <si>
-    <t>V.SARSFIELD Nº 2619. DTO.5</t>
-  </si>
-  <si>
     <t>JAUREGUIZAR JAVIER ESTEBAN</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t>ROJAS ARACELI</t>
   </si>
   <si>
-    <t>COLELLA Nº 1275</t>
-  </si>
-  <si>
     <t>HINOJO</t>
   </si>
   <si>
@@ -459,15 +453,9 @@
     <t>DICUONZO MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>GRIMALDI Nº 3333</t>
-  </si>
-  <si>
     <t>DUBNY DANA BETSABE</t>
   </si>
   <si>
-    <t>A. BARROS Nº 2776</t>
-  </si>
-  <si>
     <t xml:space="preserve">GIACOMASO SILVIA </t>
   </si>
   <si>
@@ -540,9 +528,6 @@
     <t>AGUERRE FRANCISCO</t>
   </si>
   <si>
-    <t>ESPAÑA Nº 2759</t>
-  </si>
-  <si>
     <t>BARILI ARMANDO</t>
   </si>
   <si>
@@ -831,9 +816,6 @@
     <t>VALENZA MARIA MERCEDES</t>
   </si>
   <si>
-    <t>V. SARSFIELD Nº 3279</t>
-  </si>
-  <si>
     <t>VERA BARROS OSCAR NICOLAS</t>
   </si>
   <si>
@@ -957,9 +939,6 @@
     <t>FACIO PEDRO ARTURO</t>
   </si>
   <si>
-    <t>CALLE 18 Nº 354</t>
-  </si>
-  <si>
     <t>LOMA NEGRA</t>
   </si>
   <si>
@@ -1344,21 +1323,9 @@
     <t>MOLINA PABLO ESTEBAN</t>
   </si>
   <si>
-    <t>SAN MARTIN Nº 3109</t>
-  </si>
-  <si>
-    <t>AV.TRABAJADORES Nº 3385</t>
-  </si>
-  <si>
     <t>488100 / 415780</t>
   </si>
   <si>
-    <t>AV. TRABAJADORES Nº 3385</t>
-  </si>
-  <si>
-    <t>BELGRANO Nº 2556</t>
-  </si>
-  <si>
     <t>SEIJO LUIS ANGEL</t>
   </si>
   <si>
@@ -1368,138 +1335,39 @@
     <t>AV. DEL VALLE 3127</t>
   </si>
   <si>
-    <t>GRAL PAZ Nº 2546</t>
-  </si>
-  <si>
     <t>442401/442402</t>
   </si>
   <si>
-    <t>SARMIENTO Nº 2857</t>
-  </si>
-  <si>
-    <t>AV. TRABAJADORES Nº 3335</t>
-  </si>
-  <si>
-    <t>CHACABUCO Nº 3345</t>
-  </si>
-  <si>
-    <t>RIVADAVIA Nº 4057</t>
-  </si>
-  <si>
-    <t>ESPAÑA Nº 2727</t>
-  </si>
-  <si>
-    <t>SARMIENTO Nº 1730</t>
-  </si>
-  <si>
-    <t>GRAL PAZ Nº 2553</t>
-  </si>
-  <si>
-    <t>GRAL. PAZ Nº 2974</t>
-  </si>
-  <si>
-    <t>DEAN FUNES Nº 2218</t>
-  </si>
-  <si>
-    <t>CHACABUCO Nº 2277</t>
-  </si>
-  <si>
-    <t>MORENO Nº 2958</t>
-  </si>
-  <si>
-    <t>ALSINA Nº 3696</t>
-  </si>
-  <si>
     <t>MANDAGARAN MARIA GUADALUPE</t>
   </si>
   <si>
     <t>PATERNO MARIA FLORENCIA</t>
   </si>
   <si>
-    <t>25 DE MAYO Nº 2506</t>
-  </si>
-  <si>
-    <t>HORNOS Nº 2871</t>
-  </si>
-  <si>
     <t>VILLAR MARIA GABRIELA</t>
   </si>
   <si>
     <t>ANTELO MARIA VICTORIA</t>
   </si>
   <si>
-    <t>VICENTE LOPEZ Nº 2203</t>
-  </si>
-  <si>
-    <t>VTE. LOPEZ Nº 3050</t>
-  </si>
-  <si>
-    <t>AV. TRABAJADORES Nº 3083</t>
-  </si>
-  <si>
-    <t>DORREGO Nº 3090</t>
-  </si>
-  <si>
-    <t>ESPAÑA Nº 4549</t>
-  </si>
-  <si>
     <t>BLANDO CARLOS JORGE</t>
   </si>
   <si>
-    <t>VELEZ SARFIED Nº 2512</t>
-  </si>
-  <si>
-    <t>VELEZ SARFIELD Nº 2512</t>
-  </si>
-  <si>
-    <t>A. BARROS Nº 2530</t>
-  </si>
-  <si>
-    <t>GRAL PAZ Nº 2524 3° PISO</t>
-  </si>
-  <si>
     <t>MARTINEZ SAENZ MARIA GUILLERMINA</t>
   </si>
   <si>
-    <t>GRAL PAZ Nº 2524 4TO PISO</t>
-  </si>
-  <si>
-    <t>CNEL. SUAREZ Nº 3076</t>
-  </si>
-  <si>
-    <t>VICENTE LOPEZ Nº 3050 -1P</t>
-  </si>
-  <si>
-    <t>TRABAJADORES Nº 3385 (CEMEDA)</t>
-  </si>
-  <si>
     <t>GRAND MARINA</t>
   </si>
   <si>
-    <t>AV. TRABAJADORES Nº 3385 (CEMEDA)</t>
-  </si>
-  <si>
     <t>BARCELONNA MARIA GUILLERMINA</t>
   </si>
   <si>
-    <t>25 DE MAYO Nº 1127</t>
-  </si>
-  <si>
-    <t>AV. SARMIENTO Nº 1730</t>
-  </si>
-  <si>
     <t>CHIODI ANDREA BEATRIZ</t>
   </si>
   <si>
     <t>BLANCO FERNANDEZ MARIA JUSTINA</t>
   </si>
   <si>
-    <t>RIVADAVIA Nº 2532</t>
-  </si>
-  <si>
-    <t>Av. URQUIZA Nº 3718</t>
-  </si>
-  <si>
     <t>CNEL. SUAREZ 3076</t>
   </si>
   <si>
@@ -1509,21 +1377,12 @@
     <t>ESPAÑA Nº2727</t>
   </si>
   <si>
-    <t>LAVALLE Nº 3075</t>
-  </si>
-  <si>
-    <t>MORENO Nº 2954</t>
-  </si>
-  <si>
     <t>430023 </t>
   </si>
   <si>
     <t>LAPLACE YANINA ELIANA</t>
   </si>
   <si>
-    <t>9 DE JULIO Nº 3264</t>
-  </si>
-  <si>
     <t>RODRIGUEZ ARUANO GUSTAVO</t>
   </si>
   <si>
@@ -1536,34 +1395,124 @@
     <t>LLERA MARQUEZ MARIA GUADALUPE</t>
   </si>
   <si>
-    <t>LAVALLE Nº 2365</t>
-  </si>
-  <si>
     <t>MARTINEZ de CATTANEO BEATRIZ</t>
   </si>
   <si>
-    <t>LAMADRID Nº 3532</t>
-  </si>
-  <si>
     <t xml:space="preserve"> GRAL PAZ Nº2524 4º PISO</t>
   </si>
   <si>
-    <t>GRAL PAZ Nº 2524 3º PISO</t>
-  </si>
-  <si>
     <t>AV.TRABAJADORES 3385 (CEMEDA)</t>
   </si>
   <si>
-    <t>V. SARSFIELD Nº 2619. DTO. 5 PB 7</t>
-  </si>
-  <si>
     <t>FERNANDEZ BIBILONI MARIA CAROLINA</t>
   </si>
   <si>
     <t>MARENGO MARIA FLORENCIA</t>
   </si>
   <si>
-    <t>AV. TRABAJADORES Nº 3118 Y/O CEMEDA</t>
+    <t>AV.TRABAJADORES 3385</t>
+  </si>
+  <si>
+    <t>AV. TRABAJADORES 3385</t>
+  </si>
+  <si>
+    <t>BELGRANO 2556</t>
+  </si>
+  <si>
+    <t>GRAL PAZ 2546</t>
+  </si>
+  <si>
+    <t>AV. TRABAJADORES 3335</t>
+  </si>
+  <si>
+    <t>RIVADAVIA 4057</t>
+  </si>
+  <si>
+    <t>GRAL PAZ 2553</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ 2974</t>
+  </si>
+  <si>
+    <t>COLELLA 1275</t>
+  </si>
+  <si>
+    <t>MORENO 2958</t>
+  </si>
+  <si>
+    <t>GRIMALDI 3333</t>
+  </si>
+  <si>
+    <t>25 DE MAYO 2506</t>
+  </si>
+  <si>
+    <t>ESPAÑA 2759</t>
+  </si>
+  <si>
+    <t>VICENTE LOPEZ 2203</t>
+  </si>
+  <si>
+    <t>DORREGO 3090</t>
+  </si>
+  <si>
+    <t>VELEZ SARFIED 2512</t>
+  </si>
+  <si>
+    <t>VELEZ SARFIELD 2512</t>
+  </si>
+  <si>
+    <t>A. BARROS 2530</t>
+  </si>
+  <si>
+    <t>GRAL PAZ 2524 3° PISO</t>
+  </si>
+  <si>
+    <t>V. SARSFIELD 3279</t>
+  </si>
+  <si>
+    <t>GRAL PAZ 2524 4TO PISO</t>
+  </si>
+  <si>
+    <t>VICENTE LOPEZ 3050 -1P</t>
+  </si>
+  <si>
+    <t>25 DE MAYO 1127</t>
+  </si>
+  <si>
+    <t>RIVADAVIA 2532</t>
+  </si>
+  <si>
+    <t>Av. URQUIZA 3718</t>
+  </si>
+  <si>
+    <t>TRABAJADORES 3385 (CEMEDA)</t>
+  </si>
+  <si>
+    <t>CALLE 18 354</t>
+  </si>
+  <si>
+    <t>LAVALLE 3075</t>
+  </si>
+  <si>
+    <t>MORENO 2954</t>
+  </si>
+  <si>
+    <t>CHACABUCO 3345</t>
+  </si>
+  <si>
+    <t>LAVALLE 2365</t>
+  </si>
+  <si>
+    <t>LAMADRID 3532</t>
+  </si>
+  <si>
+    <t>V. SARSFIELD 2619. DTO. 5 PB 7</t>
+  </si>
+  <si>
+    <t>AV. TRABAJADORES 3118 Y/O CEMEDA</t>
+  </si>
+  <si>
+    <t>V.SARSFIELD 2619 DTO.5</t>
   </si>
 </sst>
 </file>
@@ -2041,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C332" sqref="C332"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2131,7 +2080,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>497</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>8</v>
@@ -2145,10 +2094,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>8</v>
@@ -2162,10 +2111,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>497</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>8</v>
@@ -2179,10 +2128,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>8</v>
@@ -2196,10 +2145,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>8</v>
@@ -2210,13 +2159,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>8</v>
@@ -2227,13 +2176,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>8</v>
@@ -2244,13 +2193,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>8</v>
@@ -2261,30 +2210,30 @@
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>8</v>
@@ -2295,13 +2244,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>8</v>
@@ -2312,13 +2261,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>8</v>
@@ -2329,13 +2278,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>8</v>
@@ -2346,13 +2295,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>8</v>
@@ -2363,13 +2312,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>8</v>
@@ -2380,13 +2329,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>8</v>
@@ -2397,13 +2346,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>8</v>
@@ -2414,13 +2363,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>8</v>
@@ -2431,13 +2380,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>8</v>
@@ -2448,13 +2397,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>8</v>
@@ -2465,13 +2414,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>8</v>
@@ -2482,13 +2431,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>8</v>
@@ -2499,30 +2448,30 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>8</v>
@@ -2533,13 +2482,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>8</v>
@@ -2550,13 +2499,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>8</v>
@@ -2567,13 +2516,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>8</v>
@@ -2584,13 +2533,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>8</v>
@@ -2601,13 +2550,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>451</v>
+        <v>339</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>8</v>
@@ -2618,10 +2567,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="15" t="s">
@@ -2631,13 +2580,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>8</v>
@@ -2648,13 +2597,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>8</v>
@@ -2665,13 +2614,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>8</v>
@@ -2682,13 +2631,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>8</v>
@@ -2699,13 +2648,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>8</v>
@@ -2716,13 +2665,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>8</v>
@@ -2733,13 +2682,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>8</v>
@@ -2750,13 +2699,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>8</v>
@@ -2767,13 +2716,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>8</v>
@@ -2784,13 +2733,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>8</v>
@@ -2801,13 +2750,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>8</v>
@@ -2818,13 +2767,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>8</v>
@@ -2835,13 +2784,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>456</v>
+        <v>161</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>8</v>
@@ -2852,13 +2801,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>8</v>
@@ -2869,13 +2818,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>451</v>
+        <v>339</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>8</v>
@@ -2886,13 +2835,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>8</v>
@@ -2903,13 +2852,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>8</v>
@@ -2920,13 +2869,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>8</v>
@@ -2937,13 +2886,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>8</v>
@@ -2954,13 +2903,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>8</v>
@@ -2971,13 +2920,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>8</v>
@@ -2988,13 +2937,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>8</v>
@@ -3005,13 +2954,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>8</v>
@@ -3022,13 +2971,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>8</v>
@@ -3039,13 +2988,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>8</v>
@@ -3056,16 +3005,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="E60" s="8">
         <v>491093</v>
@@ -3073,13 +3022,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>459</v>
+        <v>57</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>8</v>
@@ -3090,13 +3039,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>8</v>
@@ -3107,13 +3056,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>8</v>
@@ -3124,13 +3073,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>8</v>
@@ -3141,10 +3090,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="15" t="s">
@@ -3154,13 +3103,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>8</v>
@@ -3171,13 +3120,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>8</v>
@@ -3188,13 +3137,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>8</v>
@@ -3205,13 +3154,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>8</v>
@@ -3222,13 +3171,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>8</v>
@@ -3239,13 +3188,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>8</v>
@@ -3256,13 +3205,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>8</v>
@@ -3273,13 +3222,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>8</v>
@@ -3290,13 +3239,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>8</v>
@@ -3307,13 +3256,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>8</v>
@@ -3324,13 +3273,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>8</v>
@@ -3341,13 +3290,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>8</v>
@@ -3358,13 +3307,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>8</v>
@@ -3375,13 +3324,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>8</v>
@@ -3392,13 +3341,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>8</v>
@@ -3409,13 +3358,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>8</v>
@@ -3426,13 +3375,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>146</v>
+        <v>473</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>8</v>
@@ -3443,13 +3392,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>8</v>
@@ -3460,13 +3409,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>8</v>
@@ -3477,13 +3426,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>8</v>
@@ -3494,13 +3443,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>462</v>
+        <v>130</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>8</v>
@@ -3511,16 +3460,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E87" s="8">
         <v>493042</v>
@@ -3528,13 +3477,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>8</v>
@@ -3545,13 +3494,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>8</v>
@@ -3562,13 +3511,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>8</v>
@@ -3579,13 +3528,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>462</v>
+        <v>130</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>8</v>
@@ -3596,13 +3545,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>8</v>
@@ -3613,13 +3562,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>8</v>
@@ -3630,13 +3579,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>8</v>
@@ -3647,13 +3596,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>8</v>
@@ -3664,13 +3613,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>8</v>
@@ -3681,13 +3630,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>8</v>
@@ -3698,13 +3647,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>8</v>
@@ -3715,13 +3664,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>466</v>
+        <v>136</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>8</v>
@@ -3732,13 +3681,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>8</v>
@@ -3749,16 +3698,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2">
         <v>491093</v>
@@ -3766,13 +3715,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>8</v>
@@ -3783,13 +3732,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>8</v>
@@ -3800,13 +3749,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>8</v>
@@ -3817,13 +3766,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="C105" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>8</v>
@@ -3834,13 +3783,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>8</v>
@@ -3851,13 +3800,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>8</v>
@@ -3868,13 +3817,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>8</v>
@@ -3885,13 +3834,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>8</v>
@@ -3902,13 +3851,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>8</v>
@@ -3919,13 +3868,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>8</v>
@@ -3936,13 +3885,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>173</v>
+        <v>475</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>8</v>
@@ -3953,13 +3902,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>8</v>
@@ -3970,13 +3919,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>8</v>
@@ -3987,13 +3936,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>8</v>
@@ -4004,13 +3953,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>471</v>
+        <v>69</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>8</v>
@@ -4021,13 +3970,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>8</v>
@@ -4038,13 +3987,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>8</v>
@@ -4055,13 +4004,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>8</v>
@@ -4072,13 +4021,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>8</v>
@@ -4089,13 +4038,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>8</v>
@@ -4106,13 +4055,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>8</v>
@@ -4123,13 +4072,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>8</v>
@@ -4140,13 +4089,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="C124" s="17" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>8</v>
@@ -4157,13 +4106,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>8</v>
@@ -4174,13 +4123,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>8</v>
@@ -4191,13 +4140,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="D127" s="15" t="s">
         <v>8</v>
@@ -4208,13 +4157,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>8</v>
@@ -4225,13 +4174,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>8</v>
@@ -4242,13 +4191,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="C130" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>8</v>
@@ -4259,13 +4208,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>8</v>
@@ -4276,13 +4225,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>8</v>
@@ -4293,13 +4242,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>8</v>
@@ -4310,13 +4259,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>8</v>
@@ -4327,13 +4276,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>8</v>
@@ -4344,13 +4293,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>8</v>
@@ -4361,13 +4310,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>8</v>
@@ -4378,13 +4327,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>8</v>
@@ -4395,13 +4344,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>8</v>
@@ -4412,13 +4361,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>473</v>
+        <v>24</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>8</v>
@@ -4429,13 +4378,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>8</v>
@@ -4446,13 +4395,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>8</v>
@@ -4463,13 +4412,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>8</v>
@@ -4480,13 +4429,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D144" s="15" t="s">
         <v>8</v>
@@ -4497,13 +4446,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>8</v>
@@ -4514,13 +4463,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="C146" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>8</v>
@@ -4531,13 +4480,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>8</v>
@@ -4548,13 +4497,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>8</v>
@@ -4565,13 +4514,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>8</v>
@@ -4582,13 +4531,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>8</v>
@@ -4599,13 +4548,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>8</v>
@@ -4616,13 +4565,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>8</v>
@@ -4633,13 +4582,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>8</v>
@@ -4650,13 +4599,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>8</v>
@@ -4667,13 +4616,13 @@
     </row>
     <row r="155" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>8</v>
@@ -4684,13 +4633,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>8</v>
@@ -4701,13 +4650,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>8</v>
@@ -4718,13 +4667,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>8</v>
@@ -4735,13 +4684,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>8</v>
@@ -4752,13 +4701,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="C160" s="16" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>8</v>
@@ -4769,13 +4718,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>8</v>
@@ -4786,13 +4735,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>8</v>
@@ -4803,13 +4752,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>8</v>
@@ -4820,13 +4769,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>8</v>
@@ -4837,13 +4786,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>8</v>
@@ -4854,13 +4803,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>8</v>
@@ -4871,13 +4820,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>8</v>
@@ -4888,13 +4837,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>8</v>
@@ -4905,13 +4854,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>8</v>
@@ -4922,13 +4871,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>8</v>
@@ -4939,13 +4888,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>8</v>
@@ -4956,13 +4905,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>8</v>
@@ -4973,13 +4922,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>8</v>
@@ -4990,13 +4939,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>270</v>
+        <v>482</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>8</v>
@@ -5007,13 +4956,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>8</v>
@@ -5024,13 +4973,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>8</v>
@@ -5041,13 +4990,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>8</v>
@@ -5058,13 +5007,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>8</v>
@@ -5075,13 +5024,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>8</v>
@@ -5092,13 +5041,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>8</v>
@@ -5109,13 +5058,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>485</v>
+        <v>117</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>8</v>
@@ -5126,30 +5075,30 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>8</v>
@@ -5160,13 +5109,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B184" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>8</v>
@@ -5177,13 +5126,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>485</v>
+        <v>117</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>8</v>
@@ -5194,13 +5143,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D186" s="15" t="s">
         <v>8</v>
@@ -5211,13 +5160,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D187" s="15" t="s">
         <v>8</v>
@@ -5228,13 +5177,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D188" s="15" t="s">
         <v>8</v>
@@ -5245,13 +5194,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D189" s="15" t="s">
         <v>8</v>
@@ -5262,13 +5211,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D190" s="15" t="s">
         <v>8</v>
@@ -5279,13 +5228,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>8</v>
@@ -5296,13 +5245,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>488</v>
+        <v>113</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>8</v>
@@ -5313,13 +5262,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>8</v>
@@ -5330,13 +5279,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>8</v>
@@ -5347,13 +5296,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>8</v>
@@ -5364,13 +5313,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D196" s="15" t="s">
         <v>8</v>
@@ -5381,13 +5330,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D197" s="15" t="s">
         <v>8</v>
@@ -5398,13 +5347,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D198" s="15" t="s">
         <v>8</v>
@@ -5415,13 +5364,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B199" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="C199" s="17" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>8</v>
@@ -5432,14 +5381,14 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E200" s="8">
         <v>443370</v>
@@ -5447,13 +5396,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>8</v>
@@ -5464,13 +5413,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D202" s="15" t="s">
         <v>8</v>
@@ -5481,13 +5430,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D203" s="15" t="s">
         <v>8</v>
@@ -5498,13 +5447,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>8</v>
@@ -5515,10 +5464,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="15" t="s">
@@ -5530,13 +5479,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="D206" s="15" t="s">
         <v>8</v>
@@ -5547,13 +5496,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D207" s="15" t="s">
         <v>8</v>
@@ -5564,16 +5513,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E208" s="8">
         <v>419616</v>
@@ -5581,16 +5530,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>312</v>
+        <v>489</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E209" s="8">
         <v>493603</v>
@@ -5598,13 +5547,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="D210" s="15" t="s">
         <v>8</v>
@@ -5615,13 +5564,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D211" s="15" t="s">
         <v>8</v>
@@ -5632,13 +5581,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D212" s="15" t="s">
         <v>8</v>
@@ -5649,13 +5598,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D213" s="15" t="s">
         <v>8</v>
@@ -5666,13 +5615,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D214" s="15" t="s">
         <v>8</v>
@@ -5683,13 +5632,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D215" s="15" t="s">
         <v>8</v>
@@ -5700,13 +5649,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D216" s="15" t="s">
         <v>8</v>
@@ -5717,13 +5666,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D217" s="15" t="s">
         <v>8</v>
@@ -5734,13 +5683,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="D218" s="15" t="s">
         <v>8</v>
@@ -5751,33 +5700,33 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D219" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E220" s="8">
         <v>492198</v>
@@ -5785,13 +5734,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D221" s="15" t="s">
         <v>8</v>
@@ -5802,13 +5751,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D222" s="15" t="s">
         <v>8</v>
@@ -5819,13 +5768,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D223" s="15" t="s">
         <v>8</v>
@@ -5836,13 +5785,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D224" s="15" t="s">
         <v>8</v>
@@ -5853,13 +5802,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D225" s="15" t="s">
         <v>8</v>
@@ -5870,13 +5819,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D226" s="15" t="s">
         <v>8</v>
@@ -5887,13 +5836,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D227" s="15" t="s">
         <v>8</v>
@@ -5904,13 +5853,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>500</v>
+        <v>84</v>
       </c>
       <c r="D228" s="15" t="s">
         <v>8</v>
@@ -5921,13 +5870,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D229" s="15" t="s">
         <v>8</v>
@@ -5938,13 +5887,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D230" s="15" t="s">
         <v>8</v>
@@ -5955,13 +5904,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D231" s="15" t="s">
         <v>8</v>
@@ -5972,13 +5921,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B232" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D232" s="15" t="s">
         <v>8</v>
@@ -5989,13 +5938,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D233" s="15" t="s">
         <v>8</v>
@@ -6006,13 +5955,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D234" s="15" t="s">
         <v>8</v>
@@ -6023,13 +5972,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="D235" s="15" t="s">
         <v>8</v>
@@ -6040,13 +5989,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D236" s="15" t="s">
         <v>8</v>
@@ -6057,13 +6006,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D237" s="15" t="s">
         <v>8</v>
@@ -6074,13 +6023,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D238" s="15" t="s">
         <v>8</v>
@@ -6091,13 +6040,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D239" s="15" t="s">
         <v>8</v>
@@ -6108,13 +6057,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D240" s="15" t="s">
         <v>8</v>
@@ -6123,13 +6072,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>8</v>
@@ -6140,13 +6089,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="D242" s="15" t="s">
         <v>8</v>
@@ -6157,10 +6106,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="15" t="s">
@@ -6170,13 +6119,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>441</v>
+        <v>26</v>
       </c>
       <c r="D244" s="15" t="s">
         <v>8</v>
@@ -6187,13 +6136,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D245" s="15" t="s">
         <v>8</v>
@@ -6204,13 +6153,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="D246" s="15" t="s">
         <v>8</v>
@@ -6221,13 +6170,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D247" s="15" t="s">
         <v>8</v>
@@ -6238,13 +6187,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D248" s="15" t="s">
         <v>8</v>
@@ -6255,13 +6204,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="15" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="D249" s="15" t="s">
         <v>8</v>
@@ -6272,13 +6221,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="15" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D250" s="15" t="s">
         <v>8</v>
@@ -6289,13 +6238,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="15" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D251" s="15" t="s">
         <v>8</v>
@@ -6306,13 +6255,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="15" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D252" s="15" t="s">
         <v>8</v>
@@ -6323,13 +6272,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>146</v>
+        <v>473</v>
       </c>
       <c r="D253" s="15" t="s">
         <v>8</v>
@@ -6340,13 +6289,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="15" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D254" s="15" t="s">
         <v>8</v>
@@ -6357,13 +6306,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="15" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D255" s="15" t="s">
         <v>8</v>
@@ -6374,13 +6323,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>8</v>
@@ -6391,13 +6340,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>8</v>
@@ -6408,13 +6357,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D258" s="15" t="s">
         <v>8</v>
@@ -6425,13 +6374,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D259" s="15" t="s">
         <v>8</v>
@@ -6442,13 +6391,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D260" s="15" t="s">
         <v>8</v>
@@ -6459,13 +6408,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D261" s="15" t="s">
         <v>8</v>
@@ -6476,13 +6425,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D262" s="15" t="s">
         <v>8</v>
@@ -6493,13 +6442,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="15" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>8</v>
@@ -6510,13 +6459,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="15" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D264" s="15" t="s">
         <v>8</v>
@@ -6527,13 +6476,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="15" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="D265" s="15" t="s">
         <v>8</v>
@@ -6544,13 +6493,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="15" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D266" s="15" t="s">
         <v>8</v>
@@ -6561,13 +6510,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D267" s="15" t="s">
         <v>8</v>
@@ -6578,13 +6527,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D268" s="15" t="s">
         <v>8</v>
@@ -6595,13 +6544,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="15" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D269" s="15" t="s">
         <v>8</v>
@@ -6612,13 +6561,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D270" s="15" t="s">
         <v>8</v>
@@ -6629,13 +6578,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D271" s="15" t="s">
         <v>8</v>
@@ -6646,13 +6595,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D272" s="15" t="s">
         <v>8</v>
@@ -6663,13 +6612,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D273" s="15" t="s">
         <v>8</v>
@@ -6680,13 +6629,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D274" s="15" t="s">
         <v>8</v>
@@ -6697,13 +6646,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D275" s="15" t="s">
         <v>8</v>
@@ -6714,13 +6663,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>509</v>
+        <v>146</v>
       </c>
       <c r="D276" s="15" t="s">
         <v>8</v>
@@ -6731,13 +6680,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D277" s="15" t="s">
         <v>8</v>
@@ -6748,13 +6697,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D278" s="15" t="s">
         <v>8</v>
@@ -6765,13 +6714,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D279" s="15" t="s">
         <v>8</v>
@@ -6782,13 +6731,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D280" s="15" t="s">
         <v>8</v>
@@ -6799,13 +6748,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D281" s="15" t="s">
         <v>8</v>
@@ -6816,13 +6765,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D282" s="15" t="s">
         <v>8</v>
@@ -6833,13 +6782,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D283" s="15" t="s">
         <v>8</v>
@@ -6850,13 +6799,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>8</v>
@@ -6867,13 +6816,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>8</v>
@@ -6884,13 +6833,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>8</v>
@@ -6901,13 +6850,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D287" s="15" t="s">
         <v>8</v>
@@ -6918,13 +6867,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>270</v>
+        <v>482</v>
       </c>
       <c r="D288" s="15" t="s">
         <v>8</v>
@@ -6935,13 +6884,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D289" s="15" t="s">
         <v>8</v>
@@ -6952,13 +6901,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="D290" s="15" t="s">
         <v>8</v>
@@ -6969,13 +6918,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D291" s="15" t="s">
         <v>8</v>
@@ -6986,13 +6935,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D292" s="15" t="s">
         <v>8</v>
@@ -7003,13 +6952,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D293" s="15" t="s">
         <v>8</v>
@@ -7020,13 +6969,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D294" s="15" t="s">
         <v>8</v>
@@ -7037,13 +6986,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B295" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B295" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="C295" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D295" s="15" t="s">
         <v>8</v>
@@ -7054,13 +7003,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D296" s="15" t="s">
         <v>8</v>
@@ -7071,13 +7020,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D297" s="15" t="s">
         <v>8</v>
@@ -7088,13 +7037,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D298" s="15" t="s">
         <v>8</v>
@@ -7105,13 +7054,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D299" s="15" t="s">
         <v>8</v>
@@ -7122,13 +7071,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D300" s="15" t="s">
         <v>8</v>
@@ -7139,13 +7088,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D301" s="15" t="s">
         <v>8</v>
@@ -7156,13 +7105,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D302" s="15" t="s">
         <v>8</v>
@@ -7173,13 +7122,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D303" s="15" t="s">
         <v>8</v>
@@ -7190,13 +7139,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D304" s="15" t="s">
         <v>8</v>
@@ -7207,13 +7156,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="15" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D305" s="15" t="s">
         <v>8</v>
@@ -7224,13 +7173,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D306" s="15" t="s">
         <v>8</v>
@@ -7241,13 +7190,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D307" s="15" t="s">
         <v>8</v>
@@ -7258,13 +7207,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D308" s="15" t="s">
         <v>8</v>
@@ -7275,13 +7224,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D309" s="15" t="s">
         <v>8</v>
@@ -7292,13 +7241,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B310" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B310" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="C310" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D310" s="15" t="s">
         <v>8</v>
@@ -7309,13 +7258,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="D311" s="15" t="s">
         <v>8</v>
@@ -7326,13 +7275,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D312" s="15" t="s">
         <v>8</v>
@@ -7343,13 +7292,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D313" s="15" t="s">
         <v>8</v>
@@ -7360,13 +7309,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C314" s="17" t="s">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="D314" s="15" t="s">
         <v>8</v>
@@ -7377,13 +7326,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="D315" s="15" t="s">
         <v>8</v>
@@ -7394,13 +7343,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D316" s="15" t="s">
         <v>8</v>
@@ -7411,13 +7360,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="15" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D317" s="15" t="s">
         <v>8</v>
@@ -7428,13 +7377,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="15" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D318" s="15" t="s">
         <v>8</v>
@@ -7445,13 +7394,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="15" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D319" s="15" t="s">
         <v>8</v>
@@ -7462,13 +7411,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="15" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D320" s="15" t="s">
         <v>8</v>
@@ -7479,13 +7428,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="15" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D321" s="15" t="s">
         <v>8</v>
@@ -7496,13 +7445,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="15" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D322" s="15" t="s">
         <v>8</v>
@@ -7513,13 +7462,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="15" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="D323" s="15" t="s">
         <v>8</v>
@@ -7530,13 +7479,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="15" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C324" s="17" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D324" s="15" t="s">
         <v>8</v>
@@ -7547,13 +7496,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="15" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D325" s="15" t="s">
         <v>8</v>
@@ -7564,13 +7513,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="15" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D326" s="15" t="s">
         <v>8</v>
@@ -7581,13 +7530,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="15" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C327" s="26" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="D327" s="15" t="s">
         <v>8</v>
@@ -7598,13 +7547,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="15" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D328" s="15" t="s">
         <v>8</v>
@@ -7615,13 +7564,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="15" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D329" s="15" t="s">
         <v>8</v>
@@ -7632,13 +7581,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="15" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D330" s="15" t="s">
         <v>8</v>

--- a/profesionales.xlsx
+++ b/profesionales.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="496">
   <si>
     <t>specialty</t>
   </si>
@@ -102,9 +102,6 @@
     <t>SAN MARTIN 3109</t>
   </si>
   <si>
-    <t>BARCELONA MARIA GUILLERMINA</t>
-  </si>
-  <si>
     <t>BONOMO MARINA ALEJANDRA</t>
   </si>
   <si>
@@ -1387,9 +1384,6 @@
   </si>
   <si>
     <t>San Martin 2887</t>
-  </si>
-  <si>
-    <t>BARCELONNA GUSTAVO</t>
   </si>
   <si>
     <t>LLERA MARQUEZ MARIA GUADALUPE</t>
@@ -1990,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2080,7 +2074,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>8</v>
@@ -2114,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>8</v>
@@ -2165,7 +2159,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>8</v>
@@ -2196,7 +2190,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>445</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>26</v>
@@ -2213,16 +2207,16 @@
         <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2230,10 +2224,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>8</v>
@@ -2247,10 +2241,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>8</v>
@@ -2264,10 +2258,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>8</v>
@@ -2281,10 +2275,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>8</v>
@@ -2298,10 +2292,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>8</v>
@@ -2315,10 +2309,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>8</v>
@@ -2332,10 +2326,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>8</v>
@@ -2349,7 +2343,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -2366,10 +2360,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>8</v>
@@ -2380,13 +2374,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>8</v>
@@ -2397,13 +2391,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>8</v>
@@ -2414,13 +2408,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>8</v>
@@ -2431,13 +2425,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>8</v>
@@ -2448,30 +2442,30 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>8</v>
@@ -2482,13 +2476,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>8</v>
@@ -2499,13 +2493,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>8</v>
@@ -2516,13 +2510,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>8</v>
@@ -2533,13 +2527,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>8</v>
@@ -2550,13 +2544,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>8</v>
@@ -2567,10 +2561,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="15" t="s">
@@ -2580,13 +2574,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>8</v>
@@ -2597,13 +2591,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>8</v>
@@ -2614,13 +2608,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>8</v>
@@ -2631,13 +2625,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>8</v>
@@ -2648,13 +2642,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>8</v>
@@ -2665,13 +2659,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>8</v>
@@ -2682,13 +2676,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>8</v>
@@ -2699,13 +2693,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>8</v>
@@ -2716,13 +2710,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>8</v>
@@ -2733,13 +2727,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>8</v>
@@ -2750,13 +2744,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>8</v>
@@ -2767,13 +2761,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>8</v>
@@ -2784,13 +2778,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>8</v>
@@ -2801,13 +2795,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>8</v>
@@ -2818,13 +2812,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>8</v>
@@ -2835,13 +2829,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>8</v>
@@ -2852,13 +2846,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>8</v>
@@ -2869,13 +2863,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>8</v>
@@ -2886,13 +2880,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>8</v>
@@ -2903,13 +2897,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>8</v>
@@ -2920,13 +2914,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>8</v>
@@ -2937,13 +2931,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>8</v>
@@ -2954,13 +2948,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>8</v>
@@ -2971,13 +2965,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>8</v>
@@ -2988,13 +2982,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>8</v>
@@ -3005,16 +2999,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="E60" s="8">
         <v>491093</v>
@@ -3022,13 +3016,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>8</v>
@@ -3039,13 +3033,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>8</v>
@@ -3056,13 +3050,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>8</v>
@@ -3073,13 +3067,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>8</v>
@@ -3090,10 +3084,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="15" t="s">
@@ -3103,10 +3097,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>26</v>
@@ -3120,13 +3114,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>8</v>
@@ -3137,13 +3131,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>8</v>
@@ -3154,13 +3148,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>8</v>
@@ -3171,13 +3165,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>8</v>
@@ -3188,13 +3182,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>8</v>
@@ -3205,13 +3199,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C72" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>8</v>
@@ -3222,13 +3216,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>8</v>
@@ -3239,13 +3233,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>8</v>
@@ -3256,13 +3250,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>8</v>
@@ -3273,13 +3267,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>8</v>
@@ -3290,13 +3284,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>8</v>
@@ -3307,13 +3301,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>8</v>
@@ -3324,13 +3318,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>8</v>
@@ -3341,13 +3335,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>8</v>
@@ -3358,13 +3352,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>8</v>
@@ -3375,13 +3369,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>8</v>
@@ -3392,13 +3386,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>8</v>
@@ -3409,13 +3403,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>8</v>
@@ -3426,13 +3420,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>8</v>
@@ -3443,13 +3437,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>8</v>
@@ -3460,16 +3454,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E87" s="8">
         <v>493042</v>
@@ -3477,13 +3471,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>8</v>
@@ -3494,13 +3488,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>8</v>
@@ -3511,13 +3505,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C90" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>8</v>
@@ -3528,13 +3522,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>8</v>
@@ -3545,13 +3539,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>8</v>
@@ -3562,13 +3556,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>8</v>
@@ -3579,13 +3573,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>8</v>
@@ -3596,13 +3590,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>8</v>
@@ -3613,13 +3607,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>8</v>
@@ -3630,13 +3624,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>8</v>
@@ -3647,13 +3641,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>8</v>
@@ -3664,13 +3658,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>8</v>
@@ -3681,13 +3675,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>8</v>
@@ -3698,16 +3692,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="D101" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2">
         <v>491093</v>
@@ -3715,13 +3709,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="C102" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>8</v>
@@ -3732,13 +3726,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>8</v>
@@ -3749,13 +3743,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>8</v>
@@ -3766,13 +3760,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>8</v>
@@ -3783,13 +3777,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>8</v>
@@ -3800,13 +3794,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>8</v>
@@ -3817,13 +3811,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>8</v>
@@ -3834,13 +3828,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>8</v>
@@ -3851,13 +3845,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>8</v>
@@ -3868,13 +3862,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>8</v>
@@ -3885,13 +3879,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>8</v>
@@ -3902,13 +3896,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>8</v>
@@ -3919,13 +3913,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>8</v>
@@ -3936,13 +3930,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>8</v>
@@ -3953,13 +3947,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>8</v>
@@ -3970,13 +3964,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>8</v>
@@ -3987,13 +3981,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>8</v>
@@ -4004,13 +3998,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>8</v>
@@ -4021,13 +4015,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>8</v>
@@ -4038,13 +4032,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="C121" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>8</v>
@@ -4055,13 +4049,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>8</v>
@@ -4072,13 +4066,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>8</v>
@@ -4089,13 +4083,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>8</v>
@@ -4106,13 +4100,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>8</v>
@@ -4123,13 +4117,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>8</v>
@@ -4140,13 +4134,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D127" s="15" t="s">
         <v>8</v>
@@ -4157,13 +4151,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>8</v>
@@ -4174,13 +4168,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>8</v>
@@ -4191,13 +4185,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>8</v>
@@ -4208,13 +4202,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>8</v>
@@ -4225,13 +4219,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>8</v>
@@ -4242,13 +4236,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>8</v>
@@ -4259,13 +4253,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>8</v>
@@ -4276,13 +4270,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>8</v>
@@ -4293,13 +4287,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>8</v>
@@ -4310,13 +4304,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>8</v>
@@ -4327,13 +4321,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>8</v>
@@ -4344,13 +4338,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>8</v>
@@ -4361,10 +4355,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C140" s="17" t="s">
         <v>24</v>
@@ -4378,13 +4372,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>8</v>
@@ -4395,13 +4389,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>8</v>
@@ -4412,13 +4406,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>8</v>
@@ -4429,13 +4423,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D144" s="15" t="s">
         <v>8</v>
@@ -4446,13 +4440,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>8</v>
@@ -4463,13 +4457,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>8</v>
@@ -4480,13 +4474,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>8</v>
@@ -4497,13 +4491,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="C148" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>8</v>
@@ -4514,13 +4508,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>8</v>
@@ -4531,13 +4525,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>8</v>
@@ -4548,13 +4542,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>8</v>
@@ -4565,13 +4559,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>8</v>
@@ -4582,13 +4576,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>8</v>
@@ -4599,13 +4593,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>8</v>
@@ -4616,13 +4610,13 @@
     </row>
     <row r="155" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="C155" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>8</v>
@@ -4633,13 +4627,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="C156" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>8</v>
@@ -4650,13 +4644,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>8</v>
@@ -4667,13 +4661,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>8</v>
@@ -4684,13 +4678,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>8</v>
@@ -4701,13 +4695,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>8</v>
@@ -4718,13 +4712,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>8</v>
@@ -4735,13 +4729,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>8</v>
@@ -4752,13 +4746,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>8</v>
@@ -4769,13 +4763,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>8</v>
@@ -4786,13 +4780,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>8</v>
@@ -4803,13 +4797,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>8</v>
@@ -4820,13 +4814,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>8</v>
@@ -4837,13 +4831,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>8</v>
@@ -4854,13 +4848,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>8</v>
@@ -4871,13 +4865,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>8</v>
@@ -4888,13 +4882,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>8</v>
@@ -4905,13 +4899,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>8</v>
@@ -4922,13 +4916,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>8</v>
@@ -4939,13 +4933,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>8</v>
@@ -4956,13 +4950,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>8</v>
@@ -4973,13 +4967,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>8</v>
@@ -4990,13 +4984,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>8</v>
@@ -5007,13 +5001,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>8</v>
@@ -5024,13 +5018,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>8</v>
@@ -5041,13 +5035,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>8</v>
@@ -5058,13 +5052,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="C181" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>8</v>
@@ -5075,30 +5069,30 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="D182" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="D182" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>8</v>
@@ -5109,13 +5103,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B184" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>8</v>
@@ -5126,13 +5120,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="C185" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>8</v>
@@ -5143,10 +5137,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>26</v>
@@ -5160,13 +5154,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="C187" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D187" s="15" t="s">
         <v>8</v>
@@ -5177,13 +5171,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D188" s="15" t="s">
         <v>8</v>
@@ -5194,13 +5188,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D189" s="15" t="s">
         <v>8</v>
@@ -5211,13 +5205,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D190" s="15" t="s">
         <v>8</v>
@@ -5228,13 +5222,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>8</v>
@@ -5245,13 +5239,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C192" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>8</v>
@@ -5262,13 +5256,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>8</v>
@@ -5279,13 +5273,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>8</v>
@@ -5296,13 +5290,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B195" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="C195" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>8</v>
@@ -5313,13 +5307,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="D196" s="15" t="s">
         <v>8</v>
@@ -5330,13 +5324,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D197" s="15" t="s">
         <v>8</v>
@@ -5347,13 +5341,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B198" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="D198" s="15" t="s">
         <v>8</v>
@@ -5364,13 +5358,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>8</v>
@@ -5381,14 +5375,14 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E200" s="8">
         <v>443370</v>
@@ -5396,13 +5390,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>8</v>
@@ -5413,13 +5407,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D202" s="15" t="s">
         <v>8</v>
@@ -5430,13 +5424,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D203" s="15" t="s">
         <v>8</v>
@@ -5447,13 +5441,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>8</v>
@@ -5464,10 +5458,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="15" t="s">
@@ -5479,13 +5473,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D206" s="15" t="s">
         <v>8</v>
@@ -5496,13 +5490,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D207" s="15" t="s">
         <v>8</v>
@@ -5513,16 +5507,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E208" s="8">
         <v>419616</v>
@@ -5530,16 +5524,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D209" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D209" s="15" t="s">
-        <v>306</v>
       </c>
       <c r="E209" s="8">
         <v>493603</v>
@@ -5547,13 +5541,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D210" s="15" t="s">
         <v>8</v>
@@ -5564,13 +5558,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D211" s="15" t="s">
         <v>8</v>
@@ -5581,13 +5575,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D212" s="15" t="s">
         <v>8</v>
@@ -5598,10 +5592,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>24</v>
@@ -5615,13 +5609,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D214" s="15" t="s">
         <v>8</v>
@@ -5632,13 +5626,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="D215" s="15" t="s">
         <v>8</v>
@@ -5649,13 +5643,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B216" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="D216" s="15" t="s">
         <v>8</v>
@@ -5666,13 +5660,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="D217" s="15" t="s">
         <v>8</v>
@@ -5683,13 +5677,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D218" s="15" t="s">
         <v>8</v>
@@ -5700,33 +5694,33 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D219" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B220" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="D220" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="D220" s="15" t="s">
-        <v>320</v>
       </c>
       <c r="E220" s="8">
         <v>492198</v>
@@ -5734,13 +5728,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D221" s="15" t="s">
         <v>8</v>
@@ -5751,13 +5745,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D222" s="15" t="s">
         <v>8</v>
@@ -5768,13 +5762,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D223" s="15" t="s">
         <v>8</v>
@@ -5785,10 +5779,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>24</v>
@@ -5802,13 +5796,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D225" s="15" t="s">
         <v>8</v>
@@ -5819,13 +5813,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D226" s="15" t="s">
         <v>8</v>
@@ -5836,13 +5830,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D227" s="15" t="s">
         <v>8</v>
@@ -5853,13 +5847,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D228" s="15" t="s">
         <v>8</v>
@@ -5870,13 +5864,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D229" s="15" t="s">
         <v>8</v>
@@ -5887,13 +5881,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B230" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="D230" s="15" t="s">
         <v>8</v>
@@ -5904,13 +5898,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="D231" s="15" t="s">
         <v>8</v>
@@ -5921,13 +5915,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B232" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D232" s="15" t="s">
         <v>8</v>
@@ -5938,13 +5932,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D233" s="15" t="s">
         <v>8</v>
@@ -5955,13 +5949,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D234" s="15" t="s">
         <v>8</v>
@@ -5972,13 +5966,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D235" s="15" t="s">
         <v>8</v>
@@ -5989,13 +5983,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D236" s="15" t="s">
         <v>8</v>
@@ -6006,13 +6000,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D237" s="15" t="s">
         <v>8</v>
@@ -6023,13 +6017,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D238" s="15" t="s">
         <v>8</v>
@@ -6040,10 +6034,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>24</v>
@@ -6057,13 +6051,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D240" s="15" t="s">
         <v>8</v>
@@ -6072,13 +6066,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>8</v>
@@ -6089,13 +6083,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D242" s="15" t="s">
         <v>8</v>
@@ -6106,10 +6100,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="15" t="s">
@@ -6119,10 +6113,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C244" s="17" t="s">
         <v>26</v>
@@ -6136,13 +6130,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D245" s="15" t="s">
         <v>8</v>
@@ -6153,13 +6147,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D246" s="15" t="s">
         <v>8</v>
@@ -6170,10 +6164,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>26</v>
@@ -6187,13 +6181,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B248" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="C248" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D248" s="15" t="s">
         <v>8</v>
@@ -6204,13 +6198,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D249" s="15" t="s">
         <v>8</v>
@@ -6221,13 +6215,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B250" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="C250" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D250" s="15" t="s">
         <v>8</v>
@@ -6238,13 +6232,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C251" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="D251" s="15" t="s">
         <v>8</v>
@@ -6255,13 +6249,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B252" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C252" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D252" s="15" t="s">
         <v>8</v>
@@ -6272,13 +6266,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D253" s="15" t="s">
         <v>8</v>
@@ -6289,13 +6283,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D254" s="15" t="s">
         <v>8</v>
@@ -6306,13 +6300,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D255" s="15" t="s">
         <v>8</v>
@@ -6323,13 +6317,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="C256" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>8</v>
@@ -6340,13 +6334,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>8</v>
@@ -6357,13 +6351,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D258" s="15" t="s">
         <v>8</v>
@@ -6374,13 +6368,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D259" s="15" t="s">
         <v>8</v>
@@ -6391,13 +6385,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D260" s="15" t="s">
         <v>8</v>
@@ -6408,13 +6402,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D261" s="15" t="s">
         <v>8</v>
@@ -6425,13 +6419,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B262" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="C262" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D262" s="15" t="s">
         <v>8</v>
@@ -6442,13 +6436,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>8</v>
@@ -6459,13 +6453,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="C264" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D264" s="15" t="s">
         <v>8</v>
@@ -6476,13 +6470,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D265" s="15" t="s">
         <v>8</v>
@@ -6493,13 +6487,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D266" s="15" t="s">
         <v>8</v>
@@ -6510,13 +6504,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="C267" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="D267" s="15" t="s">
         <v>8</v>
@@ -6527,13 +6521,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B268" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="D268" s="15" t="s">
         <v>8</v>
@@ -6544,13 +6538,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B269" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B269" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="C269" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D269" s="15" t="s">
         <v>8</v>
@@ -6561,13 +6555,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D270" s="15" t="s">
         <v>8</v>
@@ -6578,13 +6572,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D271" s="15" t="s">
         <v>8</v>
@@ -6595,13 +6589,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C272" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="D272" s="15" t="s">
         <v>8</v>
@@ -6612,13 +6606,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D273" s="15" t="s">
         <v>8</v>
@@ -6629,13 +6623,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D274" s="15" t="s">
         <v>8</v>
@@ -6646,13 +6640,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D275" s="15" t="s">
         <v>8</v>
@@ -6663,13 +6657,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D276" s="15" t="s">
         <v>8</v>
@@ -6680,13 +6674,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D277" s="15" t="s">
         <v>8</v>
@@ -6697,13 +6691,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D278" s="15" t="s">
         <v>8</v>
@@ -6714,13 +6708,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D279" s="15" t="s">
         <v>8</v>
@@ -6731,13 +6725,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D280" s="15" t="s">
         <v>8</v>
@@ -6748,13 +6742,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D281" s="15" t="s">
         <v>8</v>
@@ -6765,13 +6759,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D282" s="15" t="s">
         <v>8</v>
@@ -6782,13 +6776,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D283" s="15" t="s">
         <v>8</v>
@@ -6799,13 +6793,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>8</v>
@@ -6816,13 +6810,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>8</v>
@@ -6833,13 +6827,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>8</v>
@@ -6850,13 +6844,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D287" s="15" t="s">
         <v>8</v>
@@ -6867,13 +6861,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D288" s="15" t="s">
         <v>8</v>
@@ -6884,13 +6878,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D289" s="15" t="s">
         <v>8</v>
@@ -6901,13 +6895,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D290" s="15" t="s">
         <v>8</v>
@@ -6918,13 +6912,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D291" s="15" t="s">
         <v>8</v>
@@ -6935,13 +6929,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B292" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="C292" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="D292" s="15" t="s">
         <v>8</v>
@@ -6952,13 +6946,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B293" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="D293" s="15" t="s">
         <v>8</v>
@@ -6969,13 +6963,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="D294" s="15" t="s">
         <v>8</v>
@@ -6986,13 +6980,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B295" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C295" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="D295" s="15" t="s">
         <v>8</v>
@@ -7003,13 +6997,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="D296" s="15" t="s">
         <v>8</v>
@@ -7020,13 +7014,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D297" s="15" t="s">
         <v>8</v>
@@ -7037,13 +7031,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B298" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="D298" s="15" t="s">
         <v>8</v>
@@ -7054,13 +7048,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B299" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C299" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="D299" s="15" t="s">
         <v>8</v>
@@ -7071,13 +7065,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="D300" s="15" t="s">
         <v>8</v>
@@ -7088,13 +7082,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D301" s="15" t="s">
         <v>8</v>
@@ -7105,13 +7099,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D302" s="15" t="s">
         <v>8</v>
@@ -7122,10 +7116,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B303" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>397</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>24</v>
@@ -7139,10 +7133,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>24</v>
@@ -7156,13 +7150,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D305" s="15" t="s">
         <v>8</v>
@@ -7173,13 +7167,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C306" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="D306" s="15" t="s">
         <v>8</v>
@@ -7190,13 +7184,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="D307" s="15" t="s">
         <v>8</v>
@@ -7207,13 +7201,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B308" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="D308" s="15" t="s">
         <v>8</v>
@@ -7224,13 +7218,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D309" s="15" t="s">
         <v>8</v>
@@ -7241,13 +7235,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D310" s="15" t="s">
         <v>8</v>
@@ -7258,13 +7252,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D311" s="15" t="s">
         <v>8</v>
@@ -7275,13 +7269,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="D312" s="15" t="s">
         <v>8</v>
@@ -7292,13 +7286,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D313" s="15" t="s">
         <v>8</v>
@@ -7309,13 +7303,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C314" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D314" s="15" t="s">
         <v>8</v>
@@ -7326,13 +7320,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D315" s="15" t="s">
         <v>8</v>
@@ -7343,13 +7337,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C316" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="D316" s="15" t="s">
         <v>8</v>
@@ -7360,13 +7354,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B317" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B317" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="C317" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D317" s="15" t="s">
         <v>8</v>
@@ -7377,13 +7371,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B318" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C318" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="D318" s="15" t="s">
         <v>8</v>
@@ -7394,13 +7388,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D319" s="15" t="s">
         <v>8</v>
@@ -7411,13 +7405,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B320" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="C320" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="D320" s="15" t="s">
         <v>8</v>
@@ -7428,13 +7422,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D321" s="15" t="s">
         <v>8</v>
@@ -7445,13 +7439,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B322" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B322" s="4" t="s">
-        <v>424</v>
-      </c>
       <c r="C322" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D322" s="15" t="s">
         <v>8</v>
@@ -7462,13 +7456,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D323" s="15" t="s">
         <v>8</v>
@@ -7479,13 +7473,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C324" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D324" s="15" t="s">
         <v>8</v>
@@ -7496,13 +7490,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="C325" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D325" s="15" t="s">
         <v>8</v>
@@ -7513,13 +7507,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D326" s="15" t="s">
         <v>8</v>
@@ -7530,13 +7524,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B327" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B327" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="C327" s="26" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D327" s="15" t="s">
         <v>8</v>
@@ -7547,13 +7541,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D328" s="15" t="s">
         <v>8</v>
@@ -7564,13 +7558,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D329" s="15" t="s">
         <v>8</v>
@@ -7581,13 +7575,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D330" s="15" t="s">
         <v>8</v>

--- a/profesionales.xlsx
+++ b/profesionales.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nacho\Desktop\Cartilla-Medica-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="495">
   <si>
     <t>specialty</t>
   </si>
@@ -1054,9 +1059,6 @@
   </si>
   <si>
     <t>GALARZA MARIO</t>
-  </si>
-  <si>
-    <t>NEONATOLOGIA /  PERINATOLOGIA</t>
   </si>
   <si>
     <t>CAPRIATA MARIA ALEJANDRA</t>
@@ -1512,7 +1514,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1691,6 +1693,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1738,7 +1743,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1773,7 +1778,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1985,7 +1990,7 @@
   <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2074,7 +2079,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>8</v>
@@ -2108,7 +2113,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>8</v>
@@ -2159,7 +2164,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>8</v>
@@ -2190,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>26</v>
@@ -2216,7 +2221,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2227,7 +2232,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>8</v>
@@ -2244,7 +2249,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>8</v>
@@ -2309,7 +2314,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>38</v>
@@ -2380,7 +2385,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>8</v>
@@ -2397,7 +2402,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>8</v>
@@ -2448,13 +2453,13 @@
         <v>52</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2614,7 +2619,7 @@
         <v>69</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>8</v>
@@ -2716,7 +2721,7 @@
         <v>81</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>8</v>
@@ -2801,7 +2806,7 @@
         <v>87</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>8</v>
@@ -2971,7 +2976,7 @@
         <v>102</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>8</v>
@@ -3005,7 +3010,7 @@
         <v>105</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>106</v>
@@ -3120,7 +3125,7 @@
         <v>115</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>8</v>
@@ -3375,7 +3380,7 @@
         <v>142</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>8</v>
@@ -3457,7 +3462,7 @@
         <v>124</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>148</v>
@@ -3525,7 +3530,7 @@
         <v>124</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>129</v>
@@ -3630,7 +3635,7 @@
         <v>159</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>8</v>
@@ -3678,7 +3683,7 @@
         <v>124</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>129</v>
@@ -3729,7 +3734,7 @@
         <v>166</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>73</v>
@@ -3817,7 +3822,7 @@
         <v>46</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>8</v>
@@ -3868,7 +3873,7 @@
         <v>179</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>8</v>
@@ -3885,7 +3890,7 @@
         <v>180</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>8</v>
@@ -3902,7 +3907,7 @@
         <v>181</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>8</v>
@@ -3919,7 +3924,7 @@
         <v>182</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>8</v>
@@ -4089,7 +4094,7 @@
         <v>195</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>8</v>
@@ -4511,10 +4516,10 @@
         <v>233</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>8</v>
@@ -4582,7 +4587,7 @@
         <v>240</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>8</v>
@@ -4599,7 +4604,7 @@
         <v>241</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>8</v>
@@ -4616,7 +4621,7 @@
         <v>243</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>8</v>
@@ -4701,7 +4706,7 @@
         <v>249</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>8</v>
@@ -4718,7 +4723,7 @@
         <v>250</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>8</v>
@@ -4854,7 +4859,7 @@
         <v>259</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>8</v>
@@ -4871,7 +4876,7 @@
         <v>260</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>8</v>
@@ -4902,7 +4907,7 @@
         <v>244</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>139</v>
@@ -4939,7 +4944,7 @@
         <v>263</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>8</v>
@@ -4956,7 +4961,7 @@
         <v>264</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>8</v>
@@ -4973,7 +4978,7 @@
         <v>265</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>8</v>
@@ -4990,7 +4995,7 @@
         <v>266</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>8</v>
@@ -5089,7 +5094,7 @@
         <v>277</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>31</v>
@@ -5140,7 +5145,7 @@
         <v>279</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>26</v>
@@ -5194,7 +5199,7 @@
         <v>282</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D189" s="15" t="s">
         <v>8</v>
@@ -5276,7 +5281,7 @@
         <v>285</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>160</v>
@@ -5327,10 +5332,10 @@
         <v>286</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D197" s="15" t="s">
         <v>8</v>
@@ -5364,7 +5369,7 @@
         <v>292</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>8</v>
@@ -5479,7 +5484,7 @@
         <v>301</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D206" s="15" t="s">
         <v>8</v>
@@ -5496,7 +5501,7 @@
         <v>302</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D207" s="15" t="s">
         <v>8</v>
@@ -5513,7 +5518,7 @@
         <v>303</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D208" s="15" t="s">
         <v>305</v>
@@ -5530,7 +5535,7 @@
         <v>304</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D209" s="15" t="s">
         <v>305</v>
@@ -5547,7 +5552,7 @@
         <v>306</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D210" s="15" t="s">
         <v>8</v>
@@ -5564,7 +5569,7 @@
         <v>307</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D211" s="15" t="s">
         <v>8</v>
@@ -5615,7 +5620,7 @@
         <v>310</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D214" s="15" t="s">
         <v>8</v>
@@ -5683,7 +5688,7 @@
         <v>72</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D218" s="15" t="s">
         <v>8</v>
@@ -5700,13 +5705,13 @@
         <v>282</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D219" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -5748,7 +5753,7 @@
         <v>286</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>31</v>
@@ -5768,7 +5773,7 @@
         <v>321</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D223" s="15" t="s">
         <v>8</v>
@@ -5870,7 +5875,7 @@
         <v>327</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D229" s="15" t="s">
         <v>8</v>
@@ -5972,7 +5977,7 @@
         <v>333</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D235" s="15" t="s">
         <v>8</v>
@@ -6037,7 +6042,7 @@
         <v>286</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>24</v>
@@ -6089,7 +6094,7 @@
         <v>339</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D242" s="15" t="s">
         <v>8</v>
@@ -6215,10 +6220,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>101</v>
@@ -6232,13 +6237,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D251" s="15" t="s">
         <v>8</v>
@@ -6249,7 +6254,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>132</v>
@@ -6266,13 +6271,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D253" s="15" t="s">
         <v>8</v>
@@ -6283,7 +6288,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>146</v>
@@ -6300,10 +6305,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>116</v>
@@ -6317,13 +6322,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="C256" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>8</v>
@@ -6334,10 +6339,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>296</v>
@@ -6351,10 +6356,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>116</v>
@@ -6368,10 +6373,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>90</v>
@@ -6385,10 +6390,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>296</v>
@@ -6402,10 +6407,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>116</v>
@@ -6419,10 +6424,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>258</v>
@@ -6436,13 +6441,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>8</v>
@@ -6453,13 +6458,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="C264" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D264" s="15" t="s">
         <v>8</v>
@@ -6470,13 +6475,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D265" s="15" t="s">
         <v>8</v>
@@ -6487,10 +6492,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>92</v>
@@ -6504,13 +6509,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="C267" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="D267" s="15" t="s">
         <v>8</v>
@@ -6521,13 +6526,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B268" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="D268" s="15" t="s">
         <v>8</v>
@@ -6538,10 +6543,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B269" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>118</v>
@@ -6555,10 +6560,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>118</v>
@@ -6572,13 +6577,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D271" s="15" t="s">
         <v>8</v>
@@ -6589,13 +6594,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D272" s="15" t="s">
         <v>8</v>
@@ -6606,7 +6611,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>246</v>
@@ -6623,7 +6628,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>247</v>
@@ -6640,7 +6645,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>248</v>
@@ -6657,7 +6662,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>249</v>
@@ -6674,13 +6679,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D277" s="15" t="s">
         <v>8</v>
@@ -6691,7 +6696,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>251</v>
@@ -6708,7 +6713,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>252</v>
@@ -6725,7 +6730,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>253</v>
@@ -6742,7 +6747,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>254</v>
@@ -6759,10 +6764,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>139</v>
@@ -6776,13 +6781,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D283" s="15" t="s">
         <v>8</v>
@@ -6793,13 +6798,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>8</v>
@@ -6810,7 +6815,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>261</v>
@@ -6827,7 +6832,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>262</v>
@@ -6844,10 +6849,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>139</v>
@@ -6861,13 +6866,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D288" s="15" t="s">
         <v>8</v>
@@ -6878,13 +6883,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D289" s="15" t="s">
         <v>8</v>
@@ -6895,13 +6900,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D290" s="15" t="s">
         <v>8</v>
@@ -6912,13 +6917,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D291" s="15" t="s">
         <v>8</v>
@@ -6929,13 +6934,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B292" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="C292" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="D292" s="15" t="s">
         <v>8</v>
@@ -6946,13 +6951,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B293" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="D293" s="15" t="s">
         <v>8</v>
@@ -6963,13 +6968,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="D294" s="15" t="s">
         <v>8</v>
@@ -6980,13 +6985,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B295" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C295" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="D295" s="15" t="s">
         <v>8</v>
@@ -6997,13 +7002,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="D296" s="15" t="s">
         <v>8</v>
@@ -7014,13 +7019,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D297" s="15" t="s">
         <v>8</v>
@@ -7031,13 +7036,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B298" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="D298" s="15" t="s">
         <v>8</v>
@@ -7048,13 +7053,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B299" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C299" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="D299" s="15" t="s">
         <v>8</v>
@@ -7065,13 +7070,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="D300" s="15" t="s">
         <v>8</v>
@@ -7082,13 +7087,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D301" s="15" t="s">
         <v>8</v>
@@ -7099,13 +7104,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D302" s="15" t="s">
         <v>8</v>
@@ -7116,10 +7121,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B303" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>24</v>
@@ -7133,10 +7138,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>24</v>
@@ -7150,10 +7155,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>118</v>
@@ -7167,13 +7172,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C306" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="D306" s="15" t="s">
         <v>8</v>
@@ -7184,13 +7189,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="D307" s="15" t="s">
         <v>8</v>
@@ -7201,13 +7206,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B308" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="D308" s="15" t="s">
         <v>8</v>
@@ -7218,10 +7223,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>31</v>
@@ -7235,10 +7240,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>152</v>
@@ -7252,13 +7257,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D311" s="15" t="s">
         <v>8</v>
@@ -7269,13 +7274,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="D312" s="15" t="s">
         <v>8</v>
@@ -7286,10 +7291,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>338</v>
@@ -7303,10 +7308,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C314" s="17" t="s">
         <v>73</v>
@@ -7320,10 +7325,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C315" s="17" t="s">
         <v>73</v>
@@ -7337,13 +7342,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C316" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="D316" s="15" t="s">
         <v>8</v>
@@ -7354,10 +7359,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B317" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>174</v>
@@ -7371,13 +7376,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B318" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C318" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="D318" s="15" t="s">
         <v>8</v>
@@ -7388,10 +7393,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C319" s="17" t="s">
         <v>160</v>
@@ -7405,13 +7410,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B320" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="C320" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="D320" s="15" t="s">
         <v>8</v>
@@ -7422,13 +7427,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D321" s="15" t="s">
         <v>8</v>
@@ -7439,13 +7444,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B322" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B322" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="C322" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D322" s="15" t="s">
         <v>8</v>
@@ -7456,10 +7461,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C323" s="17" t="s">
         <v>271</v>
@@ -7473,13 +7478,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C324" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D324" s="15" t="s">
         <v>8</v>
@@ -7490,10 +7495,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>73</v>
@@ -7507,10 +7512,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>203</v>
@@ -7524,13 +7529,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B327" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B327" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="C327" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D327" s="15" t="s">
         <v>8</v>
@@ -7541,10 +7546,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>229</v>
@@ -7558,10 +7563,10 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>118</v>
@@ -7575,10 +7580,10 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>118</v>

--- a/profesionales.xlsx
+++ b/profesionales.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nacho\Desktop\Cartilla-Medica-master\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="480">
   <si>
     <t>specialty</t>
   </si>
@@ -47,18 +42,12 @@
     <t>GIOVINO NORA CRISTINA</t>
   </si>
   <si>
-    <t>SARMIENTO 2945</t>
-  </si>
-  <si>
     <t xml:space="preserve">OLAVARRIA </t>
   </si>
   <si>
     <t>GUIDO STELLA MARIS</t>
   </si>
   <si>
-    <t>R.SAENZ PEÑA 2822</t>
-  </si>
-  <si>
     <t>MAURO RAUL EDUARDO</t>
   </si>
   <si>
@@ -89,9 +78,6 @@
     <t>ZANELLI GUSTAVO</t>
   </si>
   <si>
-    <t>A.BARROS 3137</t>
-  </si>
-  <si>
     <t xml:space="preserve">CARDIOLOGIA </t>
   </si>
   <si>
@@ -110,9 +96,6 @@
     <t>BONOMO MARINA ALEJANDRA</t>
   </si>
   <si>
-    <t>AV.DEL VALLE 3919</t>
-  </si>
-  <si>
     <t>DILASCIO MAURICIO</t>
   </si>
   <si>
@@ -296,9 +279,6 @@
     <t>NAGEL PABLO ALEJANDRO</t>
   </si>
   <si>
-    <t>AV SARMIENTO 2864</t>
-  </si>
-  <si>
     <t>NAISTUD RAQUEL</t>
   </si>
   <si>
@@ -329,9 +309,6 @@
     <t>RAVI PINTO WALTER</t>
   </si>
   <si>
-    <t>TRABAJADORES 3083</t>
-  </si>
-  <si>
     <t>RECIO GUILLERMINA</t>
   </si>
   <si>
@@ -419,9 +396,6 @@
     <t>BARCELONNA GUSTAVO JAVIER</t>
   </si>
   <si>
-    <t>CNEL SUAREZ 3045</t>
-  </si>
-  <si>
     <t>BOLOGNA JULIO CESAR</t>
   </si>
   <si>
@@ -461,9 +435,6 @@
     <t xml:space="preserve">GIACOMASO SILVIA </t>
   </si>
   <si>
-    <t>GRAL PAZ 2524 3º PISO</t>
-  </si>
-  <si>
     <t>GOLINELLI FLORENCIA</t>
   </si>
   <si>
@@ -482,15 +453,9 @@
     <t>OSA NOSEDA MA. LUZ</t>
   </si>
   <si>
-    <t>TRABAJADORES 3335</t>
-  </si>
-  <si>
     <t>PIPARO MARIA TERESA</t>
   </si>
   <si>
-    <t>SGTO CABRAL 1535</t>
-  </si>
-  <si>
     <t>PRIETO CATALINA MICAELA</t>
   </si>
   <si>
@@ -506,9 +471,6 @@
     <t>SEAMBELAR GASTON</t>
   </si>
   <si>
-    <t>SARMIENTO 1730</t>
-  </si>
-  <si>
     <t>SOSA GABRIEL HERNAN</t>
   </si>
   <si>
@@ -542,9 +504,6 @@
     <t>BUGOSEN SERGIO FABIAN</t>
   </si>
   <si>
-    <t>GRAL.PAZ 2524 4º PISO</t>
-  </si>
-  <si>
     <t>CERDAN MARCELO NERI</t>
   </si>
   <si>
@@ -605,9 +564,6 @@
     <t>CHIRAMBERRO CARLOS</t>
   </si>
   <si>
-    <t xml:space="preserve">CNEL.SUAREZ 3158 </t>
-  </si>
-  <si>
     <t>CHIRAMBERRO SILVINA DANIELA</t>
   </si>
   <si>
@@ -629,9 +585,6 @@
     <t>DETTANO MARIA</t>
   </si>
   <si>
-    <t>GRAL PAZ 2540</t>
-  </si>
-  <si>
     <t>DONADI MONICA SUSANA</t>
   </si>
   <si>
@@ -665,18 +618,12 @@
     <t>RIEU JUAN</t>
   </si>
   <si>
-    <t>GRAL PAZ 3149</t>
-  </si>
-  <si>
     <t>ROMERO DANIELA</t>
   </si>
   <si>
     <t>SALIAS MARIA AGUSTINA</t>
   </si>
   <si>
-    <t>COLON 2645</t>
-  </si>
-  <si>
     <t>SALOIÑA CAROLINA</t>
   </si>
   <si>
@@ -707,9 +654,6 @@
     <t>LUNA LEONARDO OMAR</t>
   </si>
   <si>
-    <t>GENERAL PAZ 2524</t>
-  </si>
-  <si>
     <t>PUCHEU AYNARA</t>
   </si>
   <si>
@@ -740,9 +684,6 @@
     <t>IRAPORDA VIRGINIA</t>
   </si>
   <si>
-    <t>AV TRABAJADORES 3083</t>
-  </si>
-  <si>
     <t>MERLOS PUYO MARIANO ADOLFO</t>
   </si>
   <si>
@@ -800,9 +741,6 @@
     <t>LASTAPE CONSTANZA</t>
   </si>
   <si>
-    <t>GENERAL PAZ 2524 3º</t>
-  </si>
-  <si>
     <t>LESCANO FABIAN</t>
   </si>
   <si>
@@ -1139,9 +1077,6 @@
     <t xml:space="preserve">OBSTETRICIA </t>
   </si>
   <si>
-    <t>GRAL PAZ 2446</t>
-  </si>
-  <si>
     <t>GONZALEZ GUSTAVO</t>
   </si>
   <si>
@@ -1154,15 +1089,9 @@
     <t>AMENDOLA VERONICA</t>
   </si>
   <si>
-    <t>C.SUAREZ 3158</t>
-  </si>
-  <si>
     <t>BERNEY PAULA</t>
   </si>
   <si>
-    <t>VICENTE LOPEZ 2061</t>
-  </si>
-  <si>
     <t>BUTIN SANDRA CINTIA</t>
   </si>
   <si>
@@ -1385,48 +1314,30 @@
     <t>RODRIGUEZ ARUANO GUSTAVO</t>
   </si>
   <si>
-    <t>San Martin 2887</t>
-  </si>
-  <si>
     <t>LLERA MARQUEZ MARIA GUADALUPE</t>
   </si>
   <si>
     <t>MARTINEZ de CATTANEO BEATRIZ</t>
   </si>
   <si>
-    <t xml:space="preserve"> GRAL PAZ Nº2524 4º PISO</t>
-  </si>
-  <si>
-    <t>AV.TRABAJADORES 3385 (CEMEDA)</t>
-  </si>
-  <si>
     <t>FERNANDEZ BIBILONI MARIA CAROLINA</t>
   </si>
   <si>
     <t>MARENGO MARIA FLORENCIA</t>
   </si>
   <si>
-    <t>AV.TRABAJADORES 3385</t>
-  </si>
-  <si>
     <t>AV. TRABAJADORES 3385</t>
   </si>
   <si>
     <t>BELGRANO 2556</t>
   </si>
   <si>
-    <t>GRAL PAZ 2546</t>
-  </si>
-  <si>
     <t>AV. TRABAJADORES 3335</t>
   </si>
   <si>
     <t>RIVADAVIA 4057</t>
   </si>
   <si>
-    <t>GRAL PAZ 2553</t>
-  </si>
-  <si>
     <t>GRAL. PAZ 2974</t>
   </si>
   <si>
@@ -1445,45 +1356,18 @@
     <t>ESPAÑA 2759</t>
   </si>
   <si>
-    <t>VICENTE LOPEZ 2203</t>
-  </si>
-  <si>
     <t>DORREGO 3090</t>
   </si>
   <si>
-    <t>VELEZ SARFIED 2512</t>
-  </si>
-  <si>
-    <t>VELEZ SARFIELD 2512</t>
-  </si>
-  <si>
     <t>A. BARROS 2530</t>
   </si>
   <si>
-    <t>GRAL PAZ 2524 3° PISO</t>
-  </si>
-  <si>
-    <t>V. SARSFIELD 3279</t>
-  </si>
-  <si>
-    <t>GRAL PAZ 2524 4TO PISO</t>
-  </si>
-  <si>
-    <t>VICENTE LOPEZ 3050 -1P</t>
-  </si>
-  <si>
     <t>25 DE MAYO 1127</t>
   </si>
   <si>
     <t>RIVADAVIA 2532</t>
   </si>
   <si>
-    <t>Av. URQUIZA 3718</t>
-  </si>
-  <si>
-    <t>TRABAJADORES 3385 (CEMEDA)</t>
-  </si>
-  <si>
     <t>CALLE 18 354</t>
   </si>
   <si>
@@ -1502,19 +1386,85 @@
     <t>LAMADRID 3532</t>
   </si>
   <si>
-    <t>V. SARSFIELD 2619. DTO. 5 PB 7</t>
-  </si>
-  <si>
     <t>AV. TRABAJADORES 3118 Y/O CEMEDA</t>
   </si>
   <si>
-    <t>V.SARSFIELD 2619 DTO.5</t>
+    <t>AV. SARMIENTO 2945</t>
+  </si>
+  <si>
+    <t>A. BARROS 3137</t>
+  </si>
+  <si>
+    <t>AV. DEL VALLE 3919</t>
+  </si>
+  <si>
+    <t>AV. SARMIENTO 2857</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ 2553</t>
+  </si>
+  <si>
+    <t>CNEL. SUAREZ 3045</t>
+  </si>
+  <si>
+    <t>SGTO. CABRAL 1535</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ 2524 4º PISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNEL. SUAREZ 3158 </t>
+  </si>
+  <si>
+    <t>AV. COLON 2645</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ 2524 4TO PISO</t>
+  </si>
+  <si>
+    <t>VELEZ SARSFIELD 2512</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ 2446</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ 2524 3° PISO</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ 2524 3º</t>
+  </si>
+  <si>
+    <t>VTE. LOPEZ 2203</t>
+  </si>
+  <si>
+    <t>VTE. LOPEZ 3050 -1P</t>
+  </si>
+  <si>
+    <t>VTE. LOPEZ 2061</t>
+  </si>
+  <si>
+    <t>VELEZ SARSFIELD 2619 DTO.5</t>
+  </si>
+  <si>
+    <t>VELEZ SARSFIELD 3279</t>
+  </si>
+  <si>
+    <t>AV. URQUIZA 3718</t>
+  </si>
+  <si>
+    <t>SAN MARTIN 2887</t>
+  </si>
+  <si>
+    <t>VELEZ SARSFIELD 2619 DTO. 5 PB 7</t>
+  </si>
+  <si>
+    <t>VTE. LOPEZ 3050 1 P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1743,7 +1693,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1778,7 +1728,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1989,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2028,10 +1978,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>456</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="8">
         <v>2284579515</v>
@@ -2042,13 +1992,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="8">
         <v>420672</v>
@@ -2059,13 +2009,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="8">
         <v>420672</v>
@@ -2073,16 +2023,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="8">
         <v>429810</v>
@@ -2090,16 +2040,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="8">
         <v>410046</v>
@@ -2107,16 +2057,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="8">
         <v>429810</v>
@@ -2124,16 +2074,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="8">
         <v>428784</v>
@@ -2141,16 +2091,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>457</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="8">
         <v>414178</v>
@@ -2158,16 +2108,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="18">
         <v>440923</v>
@@ -2175,16 +2125,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="8">
         <v>414442</v>
@@ -2192,16 +2142,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="8">
         <v>414442</v>
@@ -2209,33 +2159,33 @@
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>458</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="19">
         <v>440923</v>
@@ -2243,16 +2193,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="20">
         <v>2284520919</v>
@@ -2260,16 +2210,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="8">
         <v>416557</v>
@@ -2277,16 +2227,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="8">
         <v>2284598370</v>
@@ -2294,16 +2244,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="8">
         <v>423605</v>
@@ -2311,16 +2261,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="8">
         <v>415997</v>
@@ -2328,16 +2278,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="19">
         <v>440923</v>
@@ -2345,16 +2295,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="19">
         <v>414442</v>
@@ -2362,16 +2312,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="8">
         <v>442668</v>
@@ -2379,16 +2329,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="8">
         <v>423776</v>
@@ -2396,16 +2346,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="8">
         <v>417600</v>
@@ -2413,16 +2363,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="19">
         <v>424221</v>
@@ -2430,16 +2380,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="8">
         <v>424703</v>
@@ -2447,33 +2397,33 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>463</v>
+        <v>295</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="8">
         <v>410285</v>
@@ -2481,16 +2431,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="19">
         <v>411765</v>
@@ -2498,16 +2448,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="8">
         <v>425698</v>
@@ -2515,16 +2465,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="8">
         <v>422013</v>
@@ -2532,16 +2482,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="8">
         <v>411919</v>
@@ -2549,16 +2499,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="19">
         <v>427391</v>
@@ -2566,29 +2516,29 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="19">
         <v>414995</v>
@@ -2596,16 +2546,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" s="8">
         <v>422800</v>
@@ -2613,16 +2563,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" s="19">
         <v>440923</v>
@@ -2630,16 +2580,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="8">
         <v>425698</v>
@@ -2647,16 +2597,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" s="8">
         <v>2284598370</v>
@@ -2664,16 +2614,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" s="8">
         <v>429708</v>
@@ -2681,16 +2631,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="8">
         <v>440800</v>
@@ -2698,16 +2648,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="8">
         <v>431120</v>
@@ -2715,16 +2665,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="19">
         <v>440800</v>
@@ -2732,16 +2682,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="8">
         <v>424200</v>
@@ -2749,16 +2699,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="8">
         <v>440923</v>
@@ -2766,16 +2716,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="19">
         <v>442030</v>
@@ -2783,16 +2733,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="8">
         <v>414442</v>
@@ -2800,16 +2750,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="19">
         <v>442400</v>
@@ -2817,16 +2767,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" s="19">
         <v>427139</v>
@@ -2834,16 +2784,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="8">
         <v>2284598370</v>
@@ -2851,16 +2801,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="8">
         <v>415997</v>
@@ -2868,16 +2818,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" s="8">
         <v>427876</v>
@@ -2885,16 +2835,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="8">
         <v>422013</v>
@@ -2902,16 +2852,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="8">
         <v>422800</v>
@@ -2919,16 +2869,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="8">
         <v>418777</v>
@@ -2936,16 +2886,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" s="19">
         <v>413100</v>
@@ -2953,16 +2903,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" s="8">
         <v>422800</v>
@@ -2970,16 +2920,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" s="19">
         <v>424479</v>
@@ -2987,16 +2937,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" s="8">
         <v>422259</v>
@@ -3004,16 +2954,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E60" s="8">
         <v>491093</v>
@@ -3021,16 +2971,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" s="19">
         <v>425698</v>
@@ -3038,16 +2988,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62" s="19">
         <v>429603</v>
@@ -3055,16 +3005,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63" s="19">
         <v>429603</v>
@@ -3072,16 +3022,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E64" s="8">
         <v>414424</v>
@@ -3089,29 +3039,29 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" s="8">
         <v>414442</v>
@@ -3119,16 +3069,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" s="19">
         <v>419616</v>
@@ -3136,16 +3086,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" s="8">
         <v>410511</v>
@@ -3153,16 +3103,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" s="8">
         <v>414045</v>
@@ -3170,16 +3120,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" s="8">
         <v>422113</v>
@@ -3187,16 +3137,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71" s="8">
         <v>480000</v>
@@ -3204,16 +3154,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72" s="19">
         <v>445100</v>
@@ -3221,16 +3171,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73" s="8">
         <v>420855</v>
@@ -3238,16 +3188,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E74" s="8">
         <v>426327</v>
@@ -3255,16 +3205,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="C75" s="4" t="s">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75" s="8">
         <v>417166</v>
@@ -3272,16 +3222,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76" s="8">
         <v>422761</v>
@@ -3289,16 +3239,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" s="8">
         <v>444925</v>
@@ -3306,16 +3256,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78" s="8">
         <v>444925</v>
@@ -3323,16 +3273,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79" s="8">
         <v>444925</v>
@@ -3340,16 +3290,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E80" s="8">
         <v>413100</v>
@@ -3357,16 +3307,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E81" s="8">
         <v>417568</v>
@@ -3374,16 +3324,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E82" s="8">
         <v>410890</v>
@@ -3391,16 +3341,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83" s="8">
         <v>2284676451</v>
@@ -3408,16 +3358,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84" s="8">
         <v>417568</v>
@@ -3425,16 +3375,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" s="8">
         <v>440923</v>
@@ -3442,16 +3392,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86" s="20">
         <v>2284211001</v>
@@ -3459,16 +3409,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E87" s="8">
         <v>493042</v>
@@ -3476,16 +3426,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88" s="8">
         <v>419392</v>
@@ -3493,16 +3443,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89" s="8">
         <v>2284716838</v>
@@ -3510,16 +3460,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" s="19">
         <v>445100</v>
@@ -3527,16 +3477,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E91" s="20">
         <v>2284211001</v>
@@ -3544,16 +3494,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>154</v>
+        <v>462</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92" s="8">
         <v>456175</v>
@@ -3561,16 +3511,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93" s="8">
         <v>419392</v>
@@ -3578,16 +3528,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94" s="8">
         <v>417568</v>
@@ -3595,16 +3545,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95" s="8">
         <v>444925</v>
@@ -3612,16 +3562,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96" s="8">
         <v>417568</v>
@@ -3629,16 +3579,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97" s="19">
         <v>420240</v>
@@ -3646,16 +3596,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98" s="8">
         <v>427448</v>
@@ -3663,16 +3613,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E99" s="19">
         <v>444925</v>
@@ -3680,16 +3630,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100" s="8">
         <v>426327</v>
@@ -3697,16 +3647,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2">
         <v>491093</v>
@@ -3714,16 +3664,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E102" s="9">
         <v>429603</v>
@@ -3731,16 +3681,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E103" s="9">
         <v>442030</v>
@@ -3748,16 +3698,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E104" s="19">
         <v>427139</v>
@@ -3765,16 +3715,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E105" s="8">
         <v>417568</v>
@@ -3782,16 +3732,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>172</v>
+        <v>463</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E106" s="8">
         <v>415997</v>
@@ -3799,16 +3749,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" s="8">
         <v>422013</v>
@@ -3816,16 +3766,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108" s="19">
         <v>422399</v>
@@ -3833,16 +3783,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" s="8">
         <v>410497</v>
@@ -3850,16 +3800,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D110" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" s="8">
         <v>415997</v>
@@ -3867,16 +3817,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111" s="19">
         <v>442400</v>
@@ -3884,16 +3834,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112" s="8">
         <v>442030</v>
@@ -3901,16 +3851,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E113" s="8">
         <v>417600</v>
@@ -3918,16 +3868,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114" s="8">
         <v>488100</v>
@@ -3935,16 +3885,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E115" s="19">
         <v>412213</v>
@@ -3952,16 +3902,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116" s="8">
         <v>422800</v>
@@ -3969,16 +3919,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E117" s="8">
         <v>429603</v>
@@ -3986,16 +3936,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E118" s="8">
         <v>428286</v>
@@ -4003,16 +3953,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E119" s="8">
         <v>417589</v>
@@ -4020,16 +3970,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E120" s="19">
         <v>412213</v>
@@ -4037,16 +3987,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E121" s="9">
         <v>2284496691</v>
@@ -4054,16 +4004,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>193</v>
+        <v>464</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E122" s="8">
         <v>426100</v>
@@ -4071,16 +4021,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123" s="8">
         <v>2284496691</v>
@@ -4088,16 +4038,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124" s="8">
         <v>431091</v>
@@ -4105,16 +4055,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125" s="8">
         <v>2284598370</v>
@@ -4122,16 +4072,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E126" s="8">
         <v>421100</v>
@@ -4139,16 +4089,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E127" s="8">
         <v>2284496691</v>
@@ -4156,16 +4106,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E128" s="8">
         <v>442401</v>
@@ -4173,16 +4123,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E129" s="8">
         <v>442401</v>
@@ -4190,16 +4140,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E130" s="8">
         <v>444020</v>
@@ -4207,16 +4157,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E131" s="8">
         <v>422846</v>
@@ -4224,16 +4174,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132" s="8">
         <v>422013</v>
@@ -4241,16 +4191,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E133" s="8">
         <v>445100</v>
@@ -4258,16 +4208,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E134" s="8">
         <v>413100</v>
@@ -4275,16 +4225,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E135" s="8">
         <v>411992</v>
@@ -4292,16 +4242,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="C136" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E136" s="8">
         <v>414500</v>
@@ -4309,16 +4259,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>216</v>
+        <v>465</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E137" s="8">
         <v>446308</v>
@@ -4326,16 +4276,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E138" s="8">
         <v>411992</v>
@@ -4343,16 +4293,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139" s="8">
         <v>422846</v>
@@ -4360,16 +4310,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E140" s="8">
         <v>416002</v>
@@ -4377,16 +4327,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E141" s="8">
         <v>411992</v>
@@ -4394,16 +4344,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142" s="8">
         <v>415225</v>
@@ -4411,16 +4361,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E143" s="9">
         <v>445100</v>
@@ -4428,16 +4378,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E144" s="9">
         <v>429603</v>
@@ -4445,16 +4395,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145" s="9">
         <v>442401</v>
@@ -4462,16 +4412,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E146" s="9">
         <v>445100</v>
@@ -4479,16 +4429,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E147" s="8">
         <v>426323</v>
@@ -4496,16 +4446,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E148" s="9">
         <v>416050</v>
@@ -4513,16 +4463,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E149" s="8">
         <v>416050</v>
@@ -4530,16 +4480,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E150" s="8">
         <v>2284598370</v>
@@ -4547,16 +4497,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151" s="8">
         <v>422800</v>
@@ -4564,16 +4514,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E152" s="8">
         <v>410511</v>
@@ -4581,16 +4531,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E153" s="8">
         <v>416050</v>
@@ -4598,16 +4548,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E154" s="8">
         <v>416050</v>
@@ -4615,16 +4565,16 @@
     </row>
     <row r="155" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E155" s="8">
         <v>414098</v>
@@ -4632,16 +4582,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>127</v>
+        <v>468</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E156" s="8">
         <v>420855</v>
@@ -4649,16 +4599,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E157" s="8">
         <v>412213</v>
@@ -4666,16 +4616,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E158" s="8">
         <v>415997</v>
@@ -4683,16 +4633,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E159" s="19">
         <v>422013</v>
@@ -4700,16 +4650,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E160" s="8">
         <v>417568</v>
@@ -4717,16 +4667,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E161" s="8">
         <v>488100</v>
@@ -4734,16 +4684,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E162" s="8">
         <v>413100</v>
@@ -4751,16 +4701,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E163" s="8">
         <v>428286</v>
@@ -4768,16 +4718,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E164" s="8">
         <v>413100</v>
@@ -4785,16 +4735,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E165" s="8">
         <v>422800</v>
@@ -4802,16 +4752,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E166" s="8">
         <v>413100</v>
@@ -4819,16 +4769,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E167" s="8">
         <v>417589</v>
@@ -4836,16 +4786,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>258</v>
+        <v>470</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E168" s="8">
         <v>417568</v>
@@ -4853,16 +4803,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E169" s="8">
         <v>488100</v>
@@ -4870,16 +4820,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E170" s="8">
         <v>488100</v>
@@ -4887,16 +4837,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E171" s="8">
         <v>412213</v>
@@ -4904,16 +4854,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E172" s="8">
         <v>413100</v>
@@ -4921,16 +4871,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E173" s="8">
         <v>413100</v>
@@ -4938,16 +4888,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="C174" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E174" s="8">
         <v>410294</v>
@@ -4955,16 +4905,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E175" s="8">
         <v>415997</v>
@@ -4972,16 +4922,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E176" s="19">
         <v>420641</v>
@@ -4989,16 +4939,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E177" s="8">
         <v>440020</v>
@@ -5006,16 +4956,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E178" s="8">
         <v>425684</v>
@@ -5023,16 +4973,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E179" s="8">
         <v>2284496691</v>
@@ -5040,16 +4990,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E180" s="19">
         <v>429603</v>
@@ -5057,16 +5007,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E181" s="8">
         <v>440923</v>
@@ -5074,33 +5024,33 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E183" s="9">
         <v>429603</v>
@@ -5108,16 +5058,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E184" s="9">
         <v>431120</v>
@@ -5125,16 +5075,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E185" s="8">
         <v>419616</v>
@@ -5142,16 +5092,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E186" s="8">
         <v>444440</v>
@@ -5159,16 +5109,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E187" s="8">
         <v>426327</v>
@@ -5176,16 +5126,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E188" s="8">
         <v>442030</v>
@@ -5193,16 +5143,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E189" s="19">
         <v>430023</v>
@@ -5210,16 +5160,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E190" s="8">
         <v>415997</v>
@@ -5227,16 +5177,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E191" s="19">
         <v>442030</v>
@@ -5244,16 +5194,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E192" s="19">
         <v>414424</v>
@@ -5261,16 +5211,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="15" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E193" s="19">
         <v>445100</v>
@@ -5278,16 +5228,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E194" s="9">
         <v>414424</v>
@@ -5295,16 +5245,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E195" s="10">
         <v>415997</v>
@@ -5312,16 +5262,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E196" s="8">
         <v>414757</v>
@@ -5329,16 +5279,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E197" s="8">
         <v>2284667184</v>
@@ -5346,16 +5296,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E198" s="8">
         <v>411874</v>
@@ -5363,16 +5313,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E199" s="19">
         <v>413600</v>
@@ -5380,14 +5330,14 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E200" s="8">
         <v>443370</v>
@@ -5395,16 +5345,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E201" s="8">
         <v>420973</v>
@@ -5412,16 +5362,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E202" s="8">
         <v>417589</v>
@@ -5429,16 +5379,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203" s="8">
         <v>411765</v>
@@ -5446,16 +5396,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E204" s="8">
         <v>442030</v>
@@ -5463,14 +5413,14 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E205" s="21">
         <v>2314493035</v>
@@ -5478,16 +5428,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E206" s="19">
         <v>420641</v>
@@ -5495,16 +5445,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>485</v>
+        <v>110</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E207" s="19">
         <v>440923</v>
@@ -5512,16 +5462,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D208" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D208" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="E208" s="8">
         <v>419616</v>
@@ -5529,16 +5479,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D209" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="D209" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="E209" s="8">
         <v>493603</v>
@@ -5546,16 +5496,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E210" s="19">
         <v>442030</v>
@@ -5563,16 +5513,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E211" s="19">
         <v>410428</v>
@@ -5580,16 +5530,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E212" s="8">
         <v>480000</v>
@@ -5597,16 +5547,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E213" s="8">
         <v>416002</v>
@@ -5614,16 +5564,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E214" s="8">
         <v>419616</v>
@@ -5631,16 +5581,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E215" s="8">
         <v>425811</v>
@@ -5648,16 +5598,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E216" s="8">
         <v>442401</v>
@@ -5665,16 +5615,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E217" s="8">
         <v>422104</v>
@@ -5682,16 +5632,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E218" s="19">
         <v>441169</v>
@@ -5699,33 +5649,33 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="E220" s="8">
         <v>492198</v>
@@ -5733,16 +5683,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E221" s="8">
         <v>425698</v>
@@ -5750,16 +5700,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E222" s="8">
         <v>429603</v>
@@ -5767,16 +5717,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E223" s="8">
         <v>419616</v>
@@ -5784,16 +5734,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E224" s="8">
         <v>416002</v>
@@ -5801,16 +5751,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E225" s="8">
         <v>15598370</v>
@@ -5818,16 +5768,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E226" s="8">
         <v>414757</v>
@@ -5835,16 +5785,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E227" s="8">
         <v>480000</v>
@@ -5852,16 +5802,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E228" s="19">
         <v>424200</v>
@@ -5869,16 +5819,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E229" s="8">
         <v>410428</v>
@@ -5886,16 +5836,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E230" s="8">
         <v>444195</v>
@@ -5903,16 +5853,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E231" s="8">
         <v>419648</v>
@@ -5920,16 +5870,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E232" s="8">
         <v>415997</v>
@@ -5937,16 +5887,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E233" s="8">
         <v>442030</v>
@@ -5954,16 +5904,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E234" s="8">
         <v>422013</v>
@@ -5971,16 +5921,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E235" s="8">
         <v>419616</v>
@@ -5988,16 +5938,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E236" s="8">
         <v>414424</v>
@@ -6005,16 +5955,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E237" s="8">
         <v>422800</v>
@@ -6022,16 +5972,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E238" s="8">
         <v>480000</v>
@@ -6039,16 +5989,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E239" s="8">
         <v>416002</v>
@@ -6056,31 +6006,31 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E240" s="8"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E241" s="8">
         <v>427139</v>
@@ -6088,16 +6038,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E242" s="22">
         <v>417600</v>
@@ -6105,29 +6055,29 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E243" s="8"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E244" s="19">
         <v>414442</v>
@@ -6135,16 +6085,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E245" s="8">
         <v>422013</v>
@@ -6152,16 +6102,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E246" s="19">
         <v>442030</v>
@@ -6169,16 +6119,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E247" s="9">
         <v>414442</v>
@@ -6186,16 +6136,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E248" s="9">
         <v>445595</v>
@@ -6203,16 +6153,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="15" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E249" s="19">
         <v>429603</v>
@@ -6220,16 +6170,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="15" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E250" s="8">
         <v>422800</v>
@@ -6237,16 +6187,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="15" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E251" s="9">
         <v>417166</v>
@@ -6254,16 +6204,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="15" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E252" s="9">
         <v>422761</v>
@@ -6271,16 +6221,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E253" s="8">
         <v>410890</v>
@@ -6288,16 +6238,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="15" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E254" s="8">
         <v>440923</v>
@@ -6305,16 +6255,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="15" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D255" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E255" s="8">
         <v>440923</v>
@@ -6322,16 +6272,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E256" s="19">
         <v>417979</v>
@@ -6339,16 +6289,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="15" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E257" s="8">
         <v>420973</v>
@@ -6356,16 +6306,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="15" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E258" s="8">
         <v>440923</v>
@@ -6373,16 +6323,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="15" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E259" s="8">
         <v>2284598370</v>
@@ -6390,16 +6340,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="15" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E260" s="8">
         <v>420973</v>
@@ -6407,16 +6357,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D261" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E261" s="8">
         <v>2284598370</v>
@@ -6424,16 +6374,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>258</v>
+        <v>470</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E262" s="9">
         <v>417568</v>
@@ -6441,16 +6391,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="15" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="D263" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E263" s="8">
         <v>413598</v>
@@ -6458,16 +6408,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="15" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E264" s="8">
         <v>417979</v>
@@ -6475,16 +6425,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="15" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D265" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E265" s="8">
         <v>415997</v>
@@ -6492,16 +6442,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="15" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D266" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E266" s="8">
         <v>415997</v>
@@ -6509,16 +6459,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D267" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E267" s="8">
         <v>416999</v>
@@ -6526,16 +6476,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="D268" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E268" s="8">
         <v>417675</v>
@@ -6543,16 +6493,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="15" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D269" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E269" s="9">
         <v>410511</v>
@@ -6560,16 +6510,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D270" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E270" s="8">
         <v>410511</v>
@@ -6577,16 +6527,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="D271" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E271" s="20">
         <v>2284667184</v>
@@ -6594,16 +6544,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="D272" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E272" s="8">
         <v>420855</v>
@@ -6611,16 +6561,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D273" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E273" s="8">
         <v>412213</v>
@@ -6628,16 +6578,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D274" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E274" s="8">
         <v>415997</v>
@@ -6645,16 +6595,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D275" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E275" s="19">
         <v>422013</v>
@@ -6662,16 +6612,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D276" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E276" s="8">
         <v>417568</v>
@@ -6679,16 +6629,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D277" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E277" s="8">
         <v>488100</v>
@@ -6696,16 +6646,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D278" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E278" s="8">
         <v>413100</v>
@@ -6713,16 +6663,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D279" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E279" s="8">
         <v>428286</v>
@@ -6730,16 +6680,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E280" s="8">
         <v>413100</v>
@@ -6747,16 +6697,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D281" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E281" s="8">
         <v>422800</v>
@@ -6764,16 +6714,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D282" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E282" s="8">
         <v>413100</v>
@@ -6781,16 +6731,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D283" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E283" s="8">
         <v>488100</v>
@@ -6798,16 +6748,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D284" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E284" s="8">
         <v>488100</v>
@@ -6815,16 +6765,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D285" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E285" s="8">
         <v>412213</v>
@@ -6832,16 +6782,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D286" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E286" s="8">
         <v>413100</v>
@@ -6849,16 +6799,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D287" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E287" s="19">
         <v>420641</v>
@@ -6866,16 +6816,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D288" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E288" s="8">
         <v>410294</v>
@@ -6883,16 +6833,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D289" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E289" s="8">
         <v>415997</v>
@@ -6900,16 +6850,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D290" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E290" s="19">
         <v>420641</v>
@@ -6917,16 +6867,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D291" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E291" s="8">
         <v>440020</v>
@@ -6934,16 +6884,16 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>376</v>
+        <v>93</v>
       </c>
       <c r="D292" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E292" s="8">
         <v>426100</v>
@@ -6951,16 +6901,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>378</v>
+        <v>473</v>
       </c>
       <c r="D293" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E293" s="8">
         <v>416078</v>
@@ -6968,16 +6918,16 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="D294" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E294" s="8">
         <v>2284663606</v>
@@ -6985,16 +6935,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D295" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E295" s="8">
         <v>442656</v>
@@ -7002,16 +6952,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="D296" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E296" s="8">
         <v>416077</v>
@@ -7019,16 +6969,16 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="D297" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E297" s="8">
         <v>416077</v>
@@ -7036,16 +6986,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="D298" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E298" s="8">
         <v>412994</v>
@@ -7053,16 +7003,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="D299" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E299" s="8">
         <v>422668</v>
@@ -7070,16 +7020,16 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="D300" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E300" s="8">
         <v>440952</v>
@@ -7087,16 +7037,16 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="D301" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E301" s="8">
         <v>422668</v>
@@ -7104,16 +7054,16 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D302" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E302" s="8">
         <v>442656</v>
@@ -7121,16 +7071,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D303" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E303" s="8">
         <v>416002</v>
@@ -7138,16 +7088,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D304" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E304" s="8">
         <v>416002</v>
@@ -7155,16 +7105,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="15" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D305" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E305" s="8">
         <v>417589</v>
@@ -7172,16 +7122,16 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="D306" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E306" s="8">
         <v>421001</v>
@@ -7189,16 +7139,16 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="D307" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E307" s="8">
         <v>421001</v>
@@ -7206,16 +7156,16 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D308" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E308" s="8">
         <v>410772</v>
@@ -7223,16 +7173,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D309" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E309" s="8">
         <v>429603</v>
@@ -7240,16 +7190,16 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>152</v>
+        <v>437</v>
       </c>
       <c r="D310" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E310" s="8">
         <v>2284598370</v>
@@ -7257,16 +7207,16 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>457</v>
+        <v>110</v>
       </c>
       <c r="D311" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E311" s="8">
         <v>440767</v>
@@ -7274,16 +7224,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="D312" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E312" s="8">
         <v>423506</v>
@@ -7291,16 +7241,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="D313" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E313" s="8">
         <v>427139</v>
@@ -7308,16 +7258,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="C314" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D314" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E314" s="8">
         <v>445100</v>
@@ -7325,16 +7275,16 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D315" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E315" s="8">
         <v>445100</v>
@@ -7342,16 +7292,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="15" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="D316" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E316" s="8">
         <v>421001</v>
@@ -7359,16 +7309,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="15" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D317" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E317" s="8">
         <v>422013</v>
@@ -7376,16 +7326,16 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="15" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="D318" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E318" s="8">
         <v>424675</v>
@@ -7393,16 +7343,16 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="15" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="D319" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E319" s="11">
         <v>1154057191</v>
@@ -7410,16 +7360,16 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="15" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="D320" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E320" s="8">
         <v>444505</v>
@@ -7427,16 +7377,16 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="15" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D321" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E321" s="19">
         <v>429810</v>
@@ -7444,16 +7394,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="15" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="D322" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E322" s="8">
         <v>2284590016</v>
@@ -7461,16 +7411,16 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="15" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D323" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E323" s="19">
         <v>411896</v>
@@ -7478,16 +7428,16 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="15" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C324" s="17" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="D324" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E324" s="8">
         <v>417979</v>
@@ -7495,16 +7445,16 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="15" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D325" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E325" s="2">
         <v>445100</v>
@@ -7512,16 +7462,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="15" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D326" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E326" s="19">
         <v>442401</v>
@@ -7529,16 +7479,16 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="15" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="C327" s="26" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="D327" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E327" s="9">
         <v>2284382526</v>
@@ -7546,16 +7496,16 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="15" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D328" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E328" s="8">
         <v>416002</v>
@@ -7563,16 +7513,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="15" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D329" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E329" s="8">
         <v>410511</v>
@@ -7580,16 +7530,16 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="15" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D330" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E330" s="8">
         <v>410511</v>

--- a/profesionales.xlsx
+++ b/profesionales.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="478">
   <si>
     <t>specialty</t>
   </si>
@@ -51,9 +51,6 @@
     <t>MAURO RAUL EDUARDO</t>
   </si>
   <si>
-    <t>R. SAENZ PEÑA 2822</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANATOMIA PATOLOGICA </t>
   </si>
   <si>
@@ -483,9 +480,6 @@
     <t>WAGNER ANA ELISA</t>
   </si>
   <si>
-    <t>AV. COELLA 1275</t>
-  </si>
-  <si>
     <t>CLINICA QUIRURGICA</t>
   </si>
   <si>
@@ -1341,9 +1335,6 @@
     <t>GRAL. PAZ 2974</t>
   </si>
   <si>
-    <t>COLELLA 1275</t>
-  </si>
-  <si>
     <t>MORENO 2958</t>
   </si>
   <si>
@@ -1437,9 +1428,6 @@
     <t>VTE. LOPEZ 2203</t>
   </si>
   <si>
-    <t>VTE. LOPEZ 3050 -1P</t>
-  </si>
-  <si>
     <t>VTE. LOPEZ 2061</t>
   </si>
   <si>
@@ -1459,6 +1447,12 @@
   </si>
   <si>
     <t>VTE. LOPEZ 3050 1 P</t>
+  </si>
+  <si>
+    <t>ROQUE SAENZ PEÑA 2822</t>
+  </si>
+  <si>
+    <t>AV. COLELLA 1275</t>
   </si>
 </sst>
 </file>
@@ -1939,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="C298" sqref="C298"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1978,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>7</v>
@@ -1995,7 +1989,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>476</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>7</v>
@@ -2012,7 +2006,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>476</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>7</v>
@@ -2023,13 +2017,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>7</v>
@@ -2040,13 +2034,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>7</v>
@@ -2057,13 +2051,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>7</v>
@@ -2074,13 +2068,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>7</v>
@@ -2091,13 +2085,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>7</v>
@@ -2108,13 +2102,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>7</v>
@@ -2125,13 +2119,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>7</v>
@@ -2142,13 +2136,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>7</v>
@@ -2159,30 +2153,30 @@
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>7</v>
@@ -2193,13 +2187,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>7</v>
@@ -2210,13 +2204,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>7</v>
@@ -2227,13 +2221,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>7</v>
@@ -2244,13 +2238,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>7</v>
@@ -2261,13 +2255,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>7</v>
@@ -2278,13 +2272,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>7</v>
@@ -2295,13 +2289,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>7</v>
@@ -2312,13 +2306,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>7</v>
@@ -2329,13 +2323,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>7</v>
@@ -2346,13 +2340,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>7</v>
@@ -2363,13 +2357,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>7</v>
@@ -2380,13 +2374,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>7</v>
@@ -2397,30 +2391,30 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>7</v>
@@ -2431,13 +2425,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>7</v>
@@ -2448,13 +2442,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>7</v>
@@ -2465,13 +2459,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>7</v>
@@ -2482,13 +2476,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>7</v>
@@ -2499,13 +2493,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>7</v>
@@ -2516,10 +2510,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="15" t="s">
@@ -2529,13 +2523,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>7</v>
@@ -2546,13 +2540,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>7</v>
@@ -2563,13 +2557,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>7</v>
@@ -2580,13 +2574,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>7</v>
@@ -2597,13 +2591,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>7</v>
@@ -2614,13 +2608,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>7</v>
@@ -2631,13 +2625,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>7</v>
@@ -2648,13 +2642,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>7</v>
@@ -2665,13 +2659,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>7</v>
@@ -2682,13 +2676,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>7</v>
@@ -2699,13 +2693,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>7</v>
@@ -2716,13 +2710,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>7</v>
@@ -2733,13 +2727,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>7</v>
@@ -2750,13 +2744,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>7</v>
@@ -2767,13 +2761,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>7</v>
@@ -2784,13 +2778,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>7</v>
@@ -2801,13 +2795,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>7</v>
@@ -2818,13 +2812,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>7</v>
@@ -2835,13 +2829,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>7</v>
@@ -2852,13 +2846,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>7</v>
@@ -2869,13 +2863,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>7</v>
@@ -2886,13 +2880,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>7</v>
@@ -2903,13 +2897,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>7</v>
@@ -2920,13 +2914,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>7</v>
@@ -2937,13 +2931,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>7</v>
@@ -2954,16 +2948,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="E60" s="8">
         <v>491093</v>
@@ -2971,13 +2965,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>7</v>
@@ -2988,13 +2982,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>7</v>
@@ -3005,13 +2999,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>7</v>
@@ -3022,13 +3016,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>7</v>
@@ -3039,10 +3033,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="15" t="s">
@@ -3052,13 +3046,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>7</v>
@@ -3069,13 +3063,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>7</v>
@@ -3086,13 +3080,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>7</v>
@@ -3103,13 +3097,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>7</v>
@@ -3120,13 +3114,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>7</v>
@@ -3137,13 +3131,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>7</v>
@@ -3154,13 +3148,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="C72" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>7</v>
@@ -3171,13 +3165,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>7</v>
@@ -3188,13 +3182,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>7</v>
@@ -3205,13 +3199,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>7</v>
@@ -3222,13 +3216,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>7</v>
@@ -3239,13 +3233,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>7</v>
@@ -3256,13 +3250,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>7</v>
@@ -3273,13 +3267,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>7</v>
@@ -3290,13 +3284,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>7</v>
@@ -3307,13 +3301,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>7</v>
@@ -3324,13 +3318,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>7</v>
@@ -3341,13 +3335,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>7</v>
@@ -3358,13 +3352,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>7</v>
@@ -3375,13 +3369,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>7</v>
@@ -3392,13 +3386,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>7</v>
@@ -3409,16 +3403,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E87" s="8">
         <v>493042</v>
@@ -3426,13 +3420,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>7</v>
@@ -3443,13 +3437,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>7</v>
@@ -3460,13 +3454,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="C90" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>7</v>
@@ -3477,13 +3471,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>7</v>
@@ -3494,13 +3488,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>7</v>
@@ -3511,13 +3505,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>7</v>
@@ -3528,13 +3522,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>7</v>
@@ -3545,13 +3539,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>7</v>
@@ -3562,13 +3556,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>7</v>
@@ -3579,13 +3573,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>7</v>
@@ -3596,13 +3590,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>7</v>
@@ -3613,13 +3607,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>7</v>
@@ -3630,13 +3624,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>7</v>
@@ -3647,16 +3641,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>154</v>
+        <v>477</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2">
         <v>491093</v>
@@ -3664,13 +3658,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>7</v>
@@ -3681,13 +3675,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>7</v>
@@ -3698,13 +3692,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="C104" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>7</v>
@@ -3715,13 +3709,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>7</v>
@@ -3732,13 +3726,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>7</v>
@@ -3749,13 +3743,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>7</v>
@@ -3766,13 +3760,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>7</v>
@@ -3783,13 +3777,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>7</v>
@@ -3800,13 +3794,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>7</v>
@@ -3817,13 +3811,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>7</v>
@@ -3834,13 +3828,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>7</v>
@@ -3851,13 +3845,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>7</v>
@@ -3868,13 +3862,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>7</v>
@@ -3885,13 +3879,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>7</v>
@@ -3902,13 +3896,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>7</v>
@@ -3919,13 +3913,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>7</v>
@@ -3936,13 +3930,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>7</v>
@@ -3953,13 +3947,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>7</v>
@@ -3970,13 +3964,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>7</v>
@@ -3987,13 +3981,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>7</v>
@@ -4004,13 +3998,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="C122" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>7</v>
@@ -4021,13 +4015,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>7</v>
@@ -4038,13 +4032,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>7</v>
@@ -4055,13 +4049,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>7</v>
@@ -4072,13 +4066,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>7</v>
@@ -4089,13 +4083,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D127" s="15" t="s">
         <v>7</v>
@@ -4106,13 +4100,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>7</v>
@@ -4123,13 +4117,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="C129" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>7</v>
@@ -4140,13 +4134,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>7</v>
@@ -4157,13 +4151,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>7</v>
@@ -4174,13 +4168,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>7</v>
@@ -4191,13 +4185,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>7</v>
@@ -4208,13 +4202,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>7</v>
@@ -4225,13 +4219,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>7</v>
@@ -4242,13 +4236,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>7</v>
@@ -4259,13 +4253,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>7</v>
@@ -4276,13 +4270,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>7</v>
@@ -4293,13 +4287,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>7</v>
@@ -4310,13 +4304,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>7</v>
@@ -4327,13 +4321,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>7</v>
@@ -4344,13 +4338,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>7</v>
@@ -4361,13 +4355,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>7</v>
@@ -4378,13 +4372,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="C144" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D144" s="15" t="s">
         <v>7</v>
@@ -4395,13 +4389,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>7</v>
@@ -4412,13 +4406,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>7</v>
@@ -4429,13 +4423,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>7</v>
@@ -4446,13 +4440,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>7</v>
@@ -4463,13 +4457,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>7</v>
@@ -4480,13 +4474,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>7</v>
@@ -4497,13 +4491,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>7</v>
@@ -4514,13 +4508,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>7</v>
@@ -4531,13 +4525,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>7</v>
@@ -4548,13 +4542,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>7</v>
@@ -4565,13 +4559,13 @@
     </row>
     <row r="155" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>7</v>
@@ -4582,13 +4576,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>7</v>
@@ -4599,13 +4593,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="C157" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>7</v>
@@ -4616,13 +4610,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>7</v>
@@ -4633,13 +4627,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>7</v>
@@ -4650,13 +4644,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>7</v>
@@ -4667,13 +4661,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>7</v>
@@ -4684,13 +4678,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>7</v>
@@ -4701,13 +4695,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>7</v>
@@ -4718,13 +4712,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>7</v>
@@ -4735,13 +4729,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>7</v>
@@ -4752,13 +4746,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>7</v>
@@ -4769,13 +4763,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>7</v>
@@ -4786,13 +4780,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>7</v>
@@ -4803,13 +4797,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>7</v>
@@ -4820,13 +4814,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>7</v>
@@ -4837,13 +4831,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>7</v>
@@ -4854,13 +4848,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>7</v>
@@ -4871,13 +4865,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>7</v>
@@ -4888,13 +4882,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>7</v>
@@ -4905,13 +4899,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>7</v>
@@ -4922,13 +4916,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>7</v>
@@ -4939,13 +4933,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>7</v>
@@ -4956,13 +4950,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>7</v>
@@ -4973,13 +4967,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>7</v>
@@ -4990,13 +4984,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>7</v>
@@ -5007,13 +5001,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>7</v>
@@ -5024,30 +5018,30 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="C182" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D182" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D182" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>7</v>
@@ -5058,13 +5052,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>7</v>
@@ -5075,13 +5069,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>7</v>
@@ -5092,13 +5086,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D186" s="15" t="s">
         <v>7</v>
@@ -5109,13 +5103,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D187" s="15" t="s">
         <v>7</v>
@@ -5126,13 +5120,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="C188" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D188" s="15" t="s">
         <v>7</v>
@@ -5143,13 +5137,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D189" s="15" t="s">
         <v>7</v>
@@ -5160,13 +5154,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D190" s="15" t="s">
         <v>7</v>
@@ -5177,13 +5171,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>7</v>
@@ -5194,13 +5188,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C192" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>7</v>
@@ -5211,13 +5205,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>7</v>
@@ -5228,13 +5222,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>7</v>
@@ -5245,13 +5239,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>7</v>
@@ -5262,13 +5256,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="C196" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D196" s="15" t="s">
         <v>7</v>
@@ -5279,13 +5273,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D197" s="15" t="s">
         <v>7</v>
@@ -5296,13 +5290,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D198" s="15" t="s">
         <v>7</v>
@@ -5313,13 +5307,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>7</v>
@@ -5330,14 +5324,14 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E200" s="8">
         <v>443370</v>
@@ -5345,13 +5339,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>7</v>
@@ -5362,13 +5356,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D202" s="15" t="s">
         <v>7</v>
@@ -5379,13 +5373,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D203" s="15" t="s">
         <v>7</v>
@@ -5396,13 +5390,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>7</v>
@@ -5413,10 +5407,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="15" t="s">
@@ -5428,13 +5422,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D206" s="15" t="s">
         <v>7</v>
@@ -5445,13 +5439,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D207" s="15" t="s">
         <v>7</v>
@@ -5462,16 +5456,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D208" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D208" s="15" t="s">
-        <v>286</v>
       </c>
       <c r="E208" s="8">
         <v>419616</v>
@@ -5479,16 +5473,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E209" s="8">
         <v>493603</v>
@@ -5496,13 +5490,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D210" s="15" t="s">
         <v>7</v>
@@ -5513,13 +5507,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D211" s="15" t="s">
         <v>7</v>
@@ -5530,13 +5524,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D212" s="15" t="s">
         <v>7</v>
@@ -5547,13 +5541,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D213" s="15" t="s">
         <v>7</v>
@@ -5564,13 +5558,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D214" s="15" t="s">
         <v>7</v>
@@ -5581,13 +5575,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D215" s="15" t="s">
         <v>7</v>
@@ -5598,13 +5592,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D216" s="15" t="s">
         <v>7</v>
@@ -5615,13 +5609,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D217" s="15" t="s">
         <v>7</v>
@@ -5632,13 +5626,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D218" s="15" t="s">
         <v>7</v>
@@ -5649,33 +5643,33 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D219" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B220" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D220" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D220" s="15" t="s">
-        <v>300</v>
       </c>
       <c r="E220" s="8">
         <v>492198</v>
@@ -5683,13 +5677,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D221" s="15" t="s">
         <v>7</v>
@@ -5700,13 +5694,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D222" s="15" t="s">
         <v>7</v>
@@ -5717,13 +5711,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D223" s="15" t="s">
         <v>7</v>
@@ -5734,13 +5728,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D224" s="15" t="s">
         <v>7</v>
@@ -5751,13 +5745,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D225" s="15" t="s">
         <v>7</v>
@@ -5768,13 +5762,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D226" s="15" t="s">
         <v>7</v>
@@ -5785,13 +5779,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D227" s="15" t="s">
         <v>7</v>
@@ -5802,13 +5796,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D228" s="15" t="s">
         <v>7</v>
@@ -5819,13 +5813,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D229" s="15" t="s">
         <v>7</v>
@@ -5836,13 +5830,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D230" s="15" t="s">
         <v>7</v>
@@ -5853,13 +5847,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D231" s="15" t="s">
         <v>7</v>
@@ -5870,13 +5864,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B232" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D232" s="15" t="s">
         <v>7</v>
@@ -5887,13 +5881,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D233" s="15" t="s">
         <v>7</v>
@@ -5904,13 +5898,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D234" s="15" t="s">
         <v>7</v>
@@ -5921,13 +5915,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D235" s="15" t="s">
         <v>7</v>
@@ -5938,13 +5932,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D236" s="15" t="s">
         <v>7</v>
@@ -5955,13 +5949,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D237" s="15" t="s">
         <v>7</v>
@@ -5972,13 +5966,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D238" s="15" t="s">
         <v>7</v>
@@ -5989,13 +5983,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D239" s="15" t="s">
         <v>7</v>
@@ -6006,13 +6000,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D240" s="15" t="s">
         <v>7</v>
@@ -6021,13 +6015,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>7</v>
@@ -6038,13 +6032,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D242" s="15" t="s">
         <v>7</v>
@@ -6055,10 +6049,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="15" t="s">
@@ -6068,13 +6062,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D244" s="15" t="s">
         <v>7</v>
@@ -6085,13 +6079,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D245" s="15" t="s">
         <v>7</v>
@@ -6102,13 +6096,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D246" s="15" t="s">
         <v>7</v>
@@ -6119,13 +6113,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D247" s="15" t="s">
         <v>7</v>
@@ -6136,13 +6130,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D248" s="15" t="s">
         <v>7</v>
@@ -6153,13 +6147,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D249" s="15" t="s">
         <v>7</v>
@@ -6170,13 +6164,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D250" s="15" t="s">
         <v>7</v>
@@ -6187,13 +6181,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D251" s="15" t="s">
         <v>7</v>
@@ -6204,13 +6198,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B252" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C252" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="D252" s="15" t="s">
         <v>7</v>
@@ -6221,13 +6215,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D253" s="15" t="s">
         <v>7</v>
@@ -6238,13 +6232,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D254" s="15" t="s">
         <v>7</v>
@@ -6255,13 +6249,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D255" s="15" t="s">
         <v>7</v>
@@ -6272,13 +6266,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>7</v>
@@ -6289,13 +6283,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="C257" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>7</v>
@@ -6306,13 +6300,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D258" s="15" t="s">
         <v>7</v>
@@ -6323,13 +6317,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D259" s="15" t="s">
         <v>7</v>
@@ -6340,13 +6334,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D260" s="15" t="s">
         <v>7</v>
@@ -6357,13 +6351,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D261" s="15" t="s">
         <v>7</v>
@@ -6374,13 +6368,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D262" s="15" t="s">
         <v>7</v>
@@ -6391,13 +6385,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B263" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="C263" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>7</v>
@@ -6408,13 +6402,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D264" s="15" t="s">
         <v>7</v>
@@ -6425,13 +6419,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="C265" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D265" s="15" t="s">
         <v>7</v>
@@ -6442,13 +6436,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D266" s="15" t="s">
         <v>7</v>
@@ -6459,13 +6453,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C267" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="D267" s="15" t="s">
         <v>7</v>
@@ -6476,13 +6470,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D268" s="15" t="s">
         <v>7</v>
@@ -6493,13 +6487,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D269" s="15" t="s">
         <v>7</v>
@@ -6510,13 +6504,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="C270" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D270" s="15" t="s">
         <v>7</v>
@@ -6527,13 +6521,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D271" s="15" t="s">
         <v>7</v>
@@ -6544,13 +6538,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D272" s="15" t="s">
         <v>7</v>
@@ -6561,13 +6555,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D273" s="15" t="s">
         <v>7</v>
@@ -6578,13 +6572,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D274" s="15" t="s">
         <v>7</v>
@@ -6595,13 +6589,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D275" s="15" t="s">
         <v>7</v>
@@ -6612,13 +6606,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D276" s="15" t="s">
         <v>7</v>
@@ -6629,13 +6623,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D277" s="15" t="s">
         <v>7</v>
@@ -6646,13 +6640,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D278" s="15" t="s">
         <v>7</v>
@@ -6663,13 +6657,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D279" s="15" t="s">
         <v>7</v>
@@ -6680,13 +6674,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D280" s="15" t="s">
         <v>7</v>
@@ -6697,13 +6691,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D281" s="15" t="s">
         <v>7</v>
@@ -6714,13 +6708,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D282" s="15" t="s">
         <v>7</v>
@@ -6731,13 +6725,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D283" s="15" t="s">
         <v>7</v>
@@ -6748,13 +6742,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B284" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="C284" s="17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>7</v>
@@ -6765,13 +6759,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>7</v>
@@ -6782,13 +6776,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>7</v>
@@ -6799,13 +6793,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D287" s="15" t="s">
         <v>7</v>
@@ -6816,13 +6810,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D288" s="15" t="s">
         <v>7</v>
@@ -6833,13 +6827,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D289" s="15" t="s">
         <v>7</v>
@@ -6850,13 +6844,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D290" s="15" t="s">
         <v>7</v>
@@ -6867,13 +6861,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D291" s="15" t="s">
         <v>7</v>
@@ -6884,13 +6878,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D292" s="15" t="s">
         <v>7</v>
@@ -6901,13 +6895,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B293" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B293" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="C293" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D293" s="15" t="s">
         <v>7</v>
@@ -6918,13 +6912,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D294" s="15" t="s">
         <v>7</v>
@@ -6935,13 +6929,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D295" s="15" t="s">
         <v>7</v>
@@ -6952,13 +6946,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D296" s="15" t="s">
         <v>7</v>
@@ -6969,13 +6963,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D297" s="15" t="s">
         <v>7</v>
@@ -6986,13 +6980,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D298" s="15" t="s">
         <v>7</v>
@@ -7003,13 +6997,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D299" s="15" t="s">
         <v>7</v>
@@ -7020,13 +7014,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D300" s="15" t="s">
         <v>7</v>
@@ -7037,13 +7031,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D301" s="15" t="s">
         <v>7</v>
@@ -7054,13 +7048,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D302" s="15" t="s">
         <v>7</v>
@@ -7071,13 +7065,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D303" s="15" t="s">
         <v>7</v>
@@ -7088,13 +7082,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B304" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="C304" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D304" s="15" t="s">
         <v>7</v>
@@ -7105,13 +7099,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D305" s="15" t="s">
         <v>7</v>
@@ -7122,13 +7116,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B306" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B306" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="C306" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D306" s="15" t="s">
         <v>7</v>
@@ -7139,13 +7133,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D307" s="15" t="s">
         <v>7</v>
@@ -7156,13 +7150,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D308" s="15" t="s">
         <v>7</v>
@@ -7173,13 +7167,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D309" s="15" t="s">
         <v>7</v>
@@ -7190,13 +7184,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D310" s="15" t="s">
         <v>7</v>
@@ -7207,13 +7201,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D311" s="15" t="s">
         <v>7</v>
@@ -7224,13 +7218,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D312" s="15" t="s">
         <v>7</v>
@@ -7241,13 +7235,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D313" s="15" t="s">
         <v>7</v>
@@ -7258,13 +7252,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C314" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D314" s="15" t="s">
         <v>7</v>
@@ -7275,13 +7269,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D315" s="15" t="s">
         <v>7</v>
@@ -7292,13 +7286,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D316" s="15" t="s">
         <v>7</v>
@@ -7309,13 +7303,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D317" s="15" t="s">
         <v>7</v>
@@ -7326,13 +7320,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B318" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B318" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="C318" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D318" s="15" t="s">
         <v>7</v>
@@ -7343,13 +7337,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D319" s="15" t="s">
         <v>7</v>
@@ -7360,13 +7354,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C320" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="D320" s="15" t="s">
         <v>7</v>
@@ -7377,13 +7371,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D321" s="15" t="s">
         <v>7</v>
@@ -7394,13 +7388,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D322" s="15" t="s">
         <v>7</v>
@@ -7411,13 +7405,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D323" s="15" t="s">
         <v>7</v>
@@ -7428,13 +7422,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B324" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B324" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="C324" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D324" s="15" t="s">
         <v>7</v>
@@ -7445,13 +7439,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D325" s="15" t="s">
         <v>7</v>
@@ -7462,13 +7456,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="C326" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D326" s="15" t="s">
         <v>7</v>
@@ -7479,13 +7473,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C327" s="26" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D327" s="15" t="s">
         <v>7</v>
@@ -7496,13 +7490,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B328" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B328" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="C328" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D328" s="15" t="s">
         <v>7</v>
@@ -7513,13 +7507,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D329" s="15" t="s">
         <v>7</v>
@@ -7530,13 +7524,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D330" s="15" t="s">
         <v>7</v>

--- a/profesionales.xlsx
+++ b/profesionales.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$330</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1931,10 +1931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E338" sqref="E338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1964,7 +1965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>2284579515</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>420672</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>420672</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>429810</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>410046</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>429810</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>428784</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>414178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>2284520919</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>416557</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>18</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>423605</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>442668</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>423776</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>38</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>417600</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>38</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>424221</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>44</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>424703</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>44</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>44</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>410285</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>44</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>411765</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>44</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>44</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>44</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>411919</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>44</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>427391</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>44</v>
       </c>
@@ -2521,7 +2522,7 @@
       </c>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>414995</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>44</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>44</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>44</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>44</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>429708</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>44</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>440800</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>44</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>431120</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>44</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>440800</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>44</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>424200</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>44</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>44</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>44</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>44</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>442400</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>44</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>427139</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>44</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>44</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>44</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>427876</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>44</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>44</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>44</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>418777</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>44</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>44</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>44</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>424479</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>44</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>422259</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>44</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>491093</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>44</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>44</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>44</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>44</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>44</v>
       </c>
@@ -3044,7 +3045,7 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>44</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>44</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>44</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>44</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>414045</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>44</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>422113</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>44</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>117</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>117</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>420855</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>117</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>426327</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>117</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>417166</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>117</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>422761</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>117</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>117</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>117</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>117</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>117</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>117</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>410890</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>117</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>2284676451</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
         <v>117</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>117</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>117</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>2284211001</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
         <v>117</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>493042</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
         <v>117</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>419392</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
         <v>117</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>2284716838</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>117</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
         <v>117</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>2284211001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
         <v>117</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>456175</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>117</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>419392</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>117</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>117</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>117</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>420240</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>117</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>427448</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
         <v>117</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
         <v>117</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>426327</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
         <v>117</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>491093</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>153</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
         <v>153</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
         <v>153</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>427139</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
         <v>153</v>
       </c>
@@ -3724,7 +3725,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
         <v>153</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>153</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
         <v>153</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>422399</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
         <v>153</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>410497</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
         <v>153</v>
       </c>
@@ -3809,7 +3810,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
         <v>153</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>442400</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
         <v>153</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
         <v>153</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>417600</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
         <v>153</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>153</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
         <v>153</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
         <v>153</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
         <v>153</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>428286</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
         <v>153</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
         <v>153</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
         <v>176</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
         <v>176</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>426100</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
         <v>176</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
         <v>176</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>431091</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
         <v>176</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
         <v>176</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>421100</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
         <v>176</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
         <v>184</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>184</v>
       </c>
@@ -4132,7 +4133,7 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
         <v>184</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>444020</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
         <v>184</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>422846</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>184</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
         <v>184</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
         <v>184</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
         <v>184</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>411992</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>184</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>414500</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
         <v>184</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>446308</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>184</v>
       </c>
@@ -4285,7 +4286,7 @@
         <v>411992</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
         <v>184</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>422846</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>184</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
         <v>184</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>411992</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>184</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>415225</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
         <v>184</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>205</v>
       </c>
@@ -4387,7 +4388,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
         <v>184</v>
       </c>
@@ -4404,7 +4405,7 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
         <v>205</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
         <v>211</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>426323</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
         <v>214</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
         <v>214</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
         <v>214</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
         <v>214</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
         <v>214</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
         <v>214</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
         <v>214</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
         <v>222</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>414098</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
         <v>224</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>420855</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
         <v>224</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
         <v>224</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
         <v>224</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
         <v>224</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
         <v>224</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
         <v>224</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
         <v>224</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>428286</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
         <v>224</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
         <v>224</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
         <v>224</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
         <v>224</v>
       </c>
@@ -4778,7 +4779,7 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
         <v>224</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
         <v>224</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
         <v>224</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
         <v>224</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
         <v>224</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
         <v>224</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
         <v>224</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>410294</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>224</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>224</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
         <v>224</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>440020</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
         <v>246</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>425684</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>246</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>246</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>251</v>
       </c>
@@ -5016,7 +5017,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>251</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
         <v>256</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
         <v>256</v>
       </c>
@@ -5067,7 +5068,7 @@
         <v>431120</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
         <v>256</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
         <v>258</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>444440</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
         <v>258</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>426327</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
         <v>258</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>430023</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
         <v>258</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
         <v>258</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
         <v>258</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="15" t="s">
         <v>258</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
         <v>264</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
         <v>265</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="15" t="s">
         <v>265</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>414757</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
         <v>265</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>2284667184</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
         <v>265</v>
       </c>
@@ -5305,7 +5306,7 @@
         <v>411874</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
         <v>265</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>413600</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>265</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>443370</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="15" t="s">
         <v>265</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>420973</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
         <v>265</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
         <v>265</v>
       </c>
@@ -5388,7 +5389,7 @@
         <v>411765</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="s">
         <v>265</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
         <v>265</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>2314493035</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
         <v>265</v>
       </c>
@@ -5437,7 +5438,7 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
         <v>265</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="s">
         <v>265</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
         <v>265</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>493603</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="s">
         <v>265</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="s">
         <v>265</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>410428</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="s">
         <v>265</v>
       </c>
@@ -5539,7 +5540,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="15" t="s">
         <v>265</v>
       </c>
@@ -5556,7 +5557,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
         <v>265</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
         <v>265</v>
       </c>
@@ -5590,7 +5591,7 @@
         <v>425811</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
         <v>265</v>
       </c>
@@ -5607,7 +5608,7 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
         <v>265</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>422104</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
         <v>265</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
         <v>265</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>492198</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
         <v>265</v>
       </c>
@@ -5692,7 +5693,7 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
         <v>265</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
         <v>265</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
         <v>265</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
         <v>265</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>15598370</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
         <v>265</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>414757</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
         <v>265</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
         <v>265</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>424200</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
         <v>265</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>410428</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
         <v>265</v>
       </c>
@@ -5845,7 +5846,7 @@
         <v>444195</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
         <v>265</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>419648</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
         <v>265</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
         <v>265</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
         <v>265</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="15" t="s">
         <v>265</v>
       </c>
@@ -5930,7 +5931,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="15" t="s">
         <v>265</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
         <v>265</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
         <v>265</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
         <v>265</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
         <v>265</v>
       </c>
@@ -6013,7 +6014,7 @@
       </c>
       <c r="E240" s="8"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
         <v>265</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>427139</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
         <v>265</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>417600</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
         <v>265</v>
       </c>
@@ -6060,7 +6061,7 @@
       </c>
       <c r="E243" s="8"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
         <v>265</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
         <v>265</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
         <v>265</v>
       </c>
@@ -6111,7 +6112,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
         <v>322</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
         <v>322</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>445595</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="15" t="s">
         <v>322</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="15" t="s">
         <v>325</v>
       </c>
@@ -6179,7 +6180,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="15" t="s">
         <v>325</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>417166</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="15" t="s">
         <v>325</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>422761</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
         <v>325</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>410890</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="15" t="s">
         <v>325</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="15" t="s">
         <v>325</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
         <v>327</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>417979</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="15" t="s">
         <v>327</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>420973</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="15" t="s">
         <v>327</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="15" t="s">
         <v>327</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="15" t="s">
         <v>327</v>
       </c>
@@ -6349,7 +6350,7 @@
         <v>420973</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
         <v>327</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
         <v>333</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="15" t="s">
         <v>333</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>413598</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="15" t="s">
         <v>336</v>
       </c>
@@ -6417,7 +6418,7 @@
         <v>417979</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="15" t="s">
         <v>336</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="15" t="s">
         <v>336</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
         <v>340</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>416999</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
         <v>340</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>417675</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="15" t="s">
         <v>345</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
         <v>345</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
         <v>345</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>2284667184</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
         <v>349</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>420855</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="15" t="s">
         <v>349</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="15" t="s">
         <v>349</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
         <v>349</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="15" t="s">
         <v>349</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="15" t="s">
         <v>349</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="15" t="s">
         <v>349</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="15" t="s">
         <v>349</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>428286</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="15" t="s">
         <v>349</v>
       </c>
@@ -6689,7 +6690,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="15" t="s">
         <v>349</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="15" t="s">
         <v>349</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="15" t="s">
         <v>349</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
         <v>349</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="15" t="s">
         <v>349</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
         <v>349</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
         <v>349</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
         <v>349</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>410294</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
         <v>349</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
         <v>349</v>
       </c>
@@ -6859,7 +6860,7 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
         <v>349</v>
       </c>
@@ -6876,7 +6877,7 @@
         <v>440020</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
         <v>352</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>426100</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="15" t="s">
         <v>352</v>
       </c>
@@ -6910,7 +6911,7 @@
         <v>416078</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
         <v>352</v>
       </c>
@@ -6927,7 +6928,7 @@
         <v>2284663606</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>352</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>442656</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>352</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>416077</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
         <v>352</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>416077</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
         <v>352</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>412994</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
         <v>352</v>
       </c>
@@ -7012,7 +7013,7 @@
         <v>422668</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="15" t="s">
         <v>352</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>440952</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
         <v>352</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>422668</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
         <v>352</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>442656</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
         <v>370</v>
       </c>
@@ -7080,7 +7081,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
         <v>370</v>
       </c>
@@ -7097,7 +7098,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="15" t="s">
         <v>370</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="15" t="s">
         <v>374</v>
       </c>
@@ -7131,7 +7132,7 @@
         <v>421001</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="15" t="s">
         <v>374</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>421001</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="15" t="s">
         <v>374</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>410772</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="15" t="s">
         <v>374</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="15" t="s">
         <v>374</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="15" t="s">
         <v>374</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>440767</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="15" t="s">
         <v>374</v>
       </c>
@@ -7233,7 +7234,7 @@
         <v>423506</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="15" t="s">
         <v>374</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>427139</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="15" t="s">
         <v>374</v>
       </c>
@@ -7267,7 +7268,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="15" t="s">
         <v>374</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="15" t="s">
         <v>374</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>421001</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="15" t="s">
         <v>389</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="15" t="s">
         <v>389</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>424675</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="15" t="s">
         <v>389</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>444505</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="15" t="s">
         <v>394</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>429810</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="15" t="s">
         <v>397</v>
       </c>
@@ -7403,7 +7404,7 @@
         <v>2284590016</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="15" t="s">
         <v>397</v>
       </c>
@@ -7420,7 +7421,7 @@
         <v>411896</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="15" t="s">
         <v>397</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>417979</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="15" t="s">
         <v>400</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="15" t="s">
         <v>400</v>
       </c>
@@ -7471,7 +7472,7 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="15" t="s">
         <v>403</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>2284382526</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="15" t="s">
         <v>403</v>
       </c>
@@ -7505,7 +7506,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="15" t="s">
         <v>403</v>
       </c>
@@ -7522,7 +7523,7 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="15" t="s">
         <v>403</v>
       </c>
@@ -7540,7 +7541,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E330">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="25 DE MAYO 1127"/>
+        <filter val="25 DE MAYO 2506"/>
+        <filter val="25 DE MAYO 3039"/>
+        <filter val="25 DE MAYO 3437"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/profesionales.xlsx
+++ b/profesionales.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$330</definedName>
@@ -19,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="478">
   <si>
     <t>specialty</t>
   </si>
@@ -120,9 +118,6 @@
     <t>9 DE JULIO 2222</t>
   </si>
   <si>
-    <t>GRAL.PAZ 2524</t>
-  </si>
-  <si>
     <t>TANCREDI VALENTINA</t>
   </si>
   <si>
@@ -369,9 +364,6 @@
     <t>ZYLA JUAN MANUEL</t>
   </si>
   <si>
-    <t>AVDA. COLON Y ALSINA</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLINICA PEDIATRICA </t>
   </si>
   <si>
@@ -381,9 +373,6 @@
     <t>ARAMBURU JORGE LUIS</t>
   </si>
   <si>
-    <t>GRAL.PAZ 2446</t>
-  </si>
-  <si>
     <t>AVILA ROMINA ANABEL</t>
   </si>
   <si>
@@ -489,9 +478,6 @@
     <t>BARILI ARMANDO</t>
   </si>
   <si>
-    <t>AV.SARMIENTO 2857</t>
-  </si>
-  <si>
     <t>BOLLINI ROBERTO ALEJANDRO</t>
   </si>
   <si>
@@ -507,9 +493,6 @@
     <t>DURANTE NORBERTO DANIEL</t>
   </si>
   <si>
-    <t>CNEL. SUAREZ 3131</t>
-  </si>
-  <si>
     <t>FAILLA FRANCISCO</t>
   </si>
   <si>
@@ -783,12 +766,6 @@
     <t>PERNAZZA ALEJANDRA</t>
   </si>
   <si>
-    <t>INSTITUO MEDICO Y MARIA AUXILIADORA</t>
-  </si>
-  <si>
-    <t>442401/445100</t>
-  </si>
-  <si>
     <t>INFECTOLOGIA</t>
   </si>
   <si>
@@ -894,9 +871,6 @@
     <t>GOMEZ ALFREDO ROMULO</t>
   </si>
   <si>
-    <t>COLON 4270</t>
-  </si>
-  <si>
     <t>GOMEZ SANDRA</t>
   </si>
   <si>
@@ -972,9 +946,6 @@
     <t>SALUZZI DIEGO CLAUDIO</t>
   </si>
   <si>
-    <t>SARMIENTO 2857</t>
-  </si>
-  <si>
     <t>SMITH LAURA JOSEFINA</t>
   </si>
   <si>
@@ -999,9 +970,6 @@
     <t>NEONATOLOGIA / PERINATOLOGIA</t>
   </si>
   <si>
-    <t>CNEL.SUAREZ 3045</t>
-  </si>
-  <si>
     <t>NEUMONOLOGIA E INMUNOLOGIA</t>
   </si>
   <si>
@@ -1089,9 +1057,6 @@
     <t>BUTIN SANDRA CINTIA</t>
   </si>
   <si>
-    <t>SAN MARTIN 3364</t>
-  </si>
-  <si>
     <t>COSSOS JORGENSEN JUAN NICOLAS</t>
   </si>
   <si>
@@ -1296,9 +1261,6 @@
     <t>AOMA LOMA NEGRA</t>
   </si>
   <si>
-    <t>ESPAÑA Nº2727</t>
-  </si>
-  <si>
     <t>430023 </t>
   </si>
   <si>
@@ -1311,18 +1273,12 @@
     <t>LLERA MARQUEZ MARIA GUADALUPE</t>
   </si>
   <si>
-    <t>MARTINEZ de CATTANEO BEATRIZ</t>
-  </si>
-  <si>
     <t>FERNANDEZ BIBILONI MARIA CAROLINA</t>
   </si>
   <si>
     <t>MARENGO MARIA FLORENCIA</t>
   </si>
   <si>
-    <t>AV. TRABAJADORES 3385</t>
-  </si>
-  <si>
     <t>BELGRANO 2556</t>
   </si>
   <si>
@@ -1410,9 +1366,6 @@
     <t>AV. COLON 2645</t>
   </si>
   <si>
-    <t>GRAL. PAZ 2524 4TO PISO</t>
-  </si>
-  <si>
     <t>VELEZ SARSFIELD 2512</t>
   </si>
   <si>
@@ -1440,26 +1393,71 @@
     <t>AV. URQUIZA 3718</t>
   </si>
   <si>
-    <t>SAN MARTIN 2887</t>
-  </si>
-  <si>
     <t>VELEZ SARSFIELD 2619 DTO. 5 PB 7</t>
   </si>
   <si>
-    <t>VTE. LOPEZ 3050 1 P</t>
-  </si>
-  <si>
     <t>ROQUE SAENZ PEÑA 2822</t>
   </si>
   <si>
     <t>AV. COLELLA 1275</t>
+  </si>
+  <si>
+    <t>CASA Nº 58 BARRIO BROWN</t>
+  </si>
+  <si>
+    <t>427139 / 415997</t>
+  </si>
+  <si>
+    <t>AV. PRINGLES 2454</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ 2524 3º / AV. TRABAJADORES 3083</t>
+  </si>
+  <si>
+    <t>417568 / 422800</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ 2524 4° PISO</t>
+  </si>
+  <si>
+    <t>VTE. LOPEZ 3050 1° PISO</t>
+  </si>
+  <si>
+    <t>442401 / 445100</t>
+  </si>
+  <si>
+    <t>2314-493035</t>
+  </si>
+  <si>
+    <t>AV. COLON 4270</t>
+  </si>
+  <si>
+    <t>VTE. LOPEZ 3680</t>
+  </si>
+  <si>
+    <t>MARTINEZ DE CATTANEO BEATRIZ</t>
+  </si>
+  <si>
+    <t>SAN MARTIN 3356</t>
+  </si>
+  <si>
+    <t>AV. SARMIENTO 2857 / GRAL. PAZ 2524 4° PISO</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ 2545</t>
+  </si>
+  <si>
+    <t>GRAL. PAZ Nº 2524</t>
+  </si>
+  <si>
+    <t>INSTITUTO MEDICO Y MARIA AUXILIADORA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,8 +1484,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1512,12 +1516,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1534,7 +1532,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1597,9 +1595,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1612,6 +1607,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1931,11 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E338" sqref="E338"/>
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1948,24 +1956,24 @@
     <col min="6" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>7</v>
@@ -1982,7 +1990,7 @@
         <v>2284579515</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>7</v>
@@ -1999,7 +2007,7 @@
         <v>420672</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>7</v>
@@ -2016,7 +2024,7 @@
         <v>420672</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
@@ -2024,7 +2032,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>7</v>
@@ -2033,7 +2041,7 @@
         <v>429810</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>410046</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -2058,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>7</v>
@@ -2067,7 +2075,7 @@
         <v>429810</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2092,7 @@
         <v>428784</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>7</v>
@@ -2101,7 +2109,7 @@
         <v>414178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -2109,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>7</v>
@@ -2118,7 +2126,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
@@ -2135,12 +2143,12 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -2152,7 +2160,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
@@ -2160,16 +2168,16 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2177,7 +2185,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>7</v>
@@ -2186,7 +2194,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
@@ -2194,7 +2202,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>7</v>
@@ -2203,7 +2211,7 @@
         <v>2284520919</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>416557</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
@@ -2237,7 +2245,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>18</v>
       </c>
@@ -2254,15 +2262,15 @@
         <v>423605</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>475</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>7</v>
@@ -2271,15 +2279,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>7</v>
@@ -2288,12 +2296,12 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>22</v>
@@ -2310,10 +2318,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>7</v>
@@ -2322,15 +2330,15 @@
         <v>442668</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>7</v>
@@ -2339,15 +2347,15 @@
         <v>423776</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>7</v>
@@ -2356,15 +2364,15 @@
         <v>417600</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>7</v>
@@ -2373,15 +2381,15 @@
         <v>424221</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>7</v>
@@ -2390,32 +2398,32 @@
         <v>424703</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>7</v>
@@ -2424,15 +2432,15 @@
         <v>410285</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>7</v>
@@ -2441,15 +2449,15 @@
         <v>411765</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>7</v>
@@ -2458,15 +2466,15 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>7</v>
@@ -2475,15 +2483,15 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>7</v>
@@ -2492,15 +2500,15 @@
         <v>411919</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>7</v>
@@ -2509,12 +2517,12 @@
         <v>427391</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="15" t="s">
@@ -2522,15 +2530,15 @@
       </c>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>7</v>
@@ -2539,32 +2547,32 @@
         <v>414995</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="28">
+        <v>415997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="8">
-        <v>422800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="C37" s="17" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>7</v>
@@ -2573,15 +2581,15 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>7</v>
@@ -2590,12 +2598,12 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -2607,15 +2615,15 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>7</v>
@@ -2624,15 +2632,15 @@
         <v>429708</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>7</v>
@@ -2641,15 +2649,15 @@
         <v>440800</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>7</v>
@@ -2658,15 +2666,15 @@
         <v>431120</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>7</v>
@@ -2675,15 +2683,15 @@
         <v>440800</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>7</v>
@@ -2692,15 +2700,15 @@
         <v>424200</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>7</v>
@@ -2709,15 +2717,15 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>7</v>
@@ -2726,15 +2734,15 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>7</v>
@@ -2743,15 +2751,15 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>7</v>
@@ -2760,15 +2768,15 @@
         <v>442400</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>7</v>
@@ -2777,12 +2785,12 @@
         <v>427139</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>30</v>
@@ -2794,15 +2802,15 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>7</v>
@@ -2811,15 +2819,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>7</v>
@@ -2828,15 +2836,15 @@
         <v>427876</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>7</v>
@@ -2845,15 +2853,15 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>7</v>
@@ -2862,15 +2870,15 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>7</v>
@@ -2879,15 +2887,15 @@
         <v>418777</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>7</v>
@@ -2896,15 +2904,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>7</v>
@@ -2913,15 +2921,15 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>7</v>
@@ -2930,15 +2938,15 @@
         <v>424479</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>7</v>
@@ -2947,32 +2955,32 @@
         <v>422259</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="D60" s="15" t="s">
+      <c r="E60" s="28">
+        <v>491541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="8">
-        <v>491093</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="C61" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>7</v>
@@ -2981,12 +2989,12 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>26</v>
@@ -2998,12 +3006,12 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>26</v>
@@ -3015,15 +3023,15 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>7</v>
@@ -3032,25 +3040,29 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="30">
+        <v>417979</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>22</v>
@@ -3062,15 +3074,15 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>7</v>
@@ -3079,15 +3091,15 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>7</v>
@@ -3096,15 +3108,15 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>7</v>
@@ -3113,15 +3125,15 @@
         <v>414045</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>7</v>
@@ -3130,15 +3142,15 @@
         <v>422113</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>7</v>
@@ -3147,15 +3159,15 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>7</v>
@@ -3164,15 +3176,15 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>7</v>
@@ -3181,15 +3193,15 @@
         <v>420855</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>7</v>
@@ -3198,15 +3210,15 @@
         <v>426327</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>7</v>
@@ -3215,15 +3227,15 @@
         <v>417166</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>7</v>
@@ -3232,15 +3244,15 @@
         <v>422761</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>7</v>
@@ -3249,15 +3261,15 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>7</v>
@@ -3266,15 +3278,15 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>7</v>
@@ -3283,15 +3295,15 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>7</v>
@@ -3300,15 +3312,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>7</v>
@@ -3317,15 +3329,15 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>7</v>
@@ -3334,15 +3346,15 @@
         <v>410890</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>7</v>
@@ -3351,15 +3363,15 @@
         <v>2284676451</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>7</v>
@@ -3368,15 +3380,15 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>7</v>
@@ -3385,15 +3397,15 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>7</v>
@@ -3402,32 +3414,32 @@
         <v>2284211001</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E87" s="8">
         <v>493042</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>7</v>
@@ -3436,15 +3448,15 @@
         <v>419392</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>7</v>
@@ -3453,15 +3465,15 @@
         <v>2284716838</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>7</v>
@@ -3470,15 +3482,15 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>7</v>
@@ -3487,15 +3499,15 @@
         <v>2284211001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>7</v>
@@ -3504,15 +3516,15 @@
         <v>456175</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>7</v>
@@ -3521,15 +3533,15 @@
         <v>419392</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>7</v>
@@ -3538,15 +3550,15 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>7</v>
@@ -3555,15 +3567,15 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>7</v>
@@ -3574,13 +3586,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>7</v>
@@ -3589,15 +3601,15 @@
         <v>420240</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>7</v>
@@ -3606,15 +3618,15 @@
         <v>427448</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>7</v>
@@ -3623,15 +3635,15 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>7</v>
@@ -3640,29 +3652,29 @@
         <v>426327</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2">
         <v>491093</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>26</v>
@@ -3674,15 +3686,15 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>7</v>
@@ -3691,32 +3703,32 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="19">
-        <v>427139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="C105" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>7</v>
@@ -3725,15 +3737,15 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>7</v>
@@ -3742,15 +3754,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>7</v>
@@ -3759,15 +3771,15 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>7</v>
@@ -3776,32 +3788,32 @@
         <v>422399</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>463</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="28">
         <v>410497</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>7</v>
@@ -3810,15 +3822,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>7</v>
@@ -3827,15 +3839,15 @@
         <v>442400</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>7</v>
@@ -3844,15 +3856,15 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>7</v>
@@ -3861,15 +3873,15 @@
         <v>417600</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>7</v>
@@ -3878,15 +3890,15 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>7</v>
@@ -3895,15 +3907,15 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>7</v>
@@ -3912,12 +3924,12 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>26</v>
@@ -3929,15 +3941,15 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>7</v>
@@ -3946,15 +3958,15 @@
         <v>428286</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>7</v>
@@ -3963,15 +3975,15 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>7</v>
@@ -3980,15 +3992,15 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>7</v>
@@ -3997,15 +4009,15 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>7</v>
@@ -4014,15 +4026,15 @@
         <v>426100</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>7</v>
@@ -4031,15 +4043,15 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>7</v>
@@ -4048,12 +4060,12 @@
         <v>431091</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>30</v>
@@ -4065,15 +4077,15 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>7</v>
@@ -4082,15 +4094,15 @@
         <v>421100</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D127" s="15" t="s">
         <v>7</v>
@@ -4099,15 +4111,15 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>7</v>
@@ -4116,15 +4128,15 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>7</v>
@@ -4133,15 +4145,15 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>7</v>
@@ -4150,15 +4162,15 @@
         <v>444020</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>7</v>
@@ -4167,15 +4179,15 @@
         <v>422846</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>7</v>
@@ -4184,15 +4196,15 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>7</v>
@@ -4201,15 +4213,15 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>7</v>
@@ -4218,15 +4230,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>7</v>
@@ -4235,15 +4247,15 @@
         <v>411992</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>7</v>
@@ -4252,15 +4264,15 @@
         <v>414500</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>7</v>
@@ -4269,15 +4281,15 @@
         <v>446308</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>7</v>
@@ -4286,15 +4298,15 @@
         <v>411992</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>7</v>
@@ -4303,12 +4315,12 @@
         <v>422846</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C140" s="17" t="s">
         <v>20</v>
@@ -4320,15 +4332,15 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>7</v>
@@ -4337,15 +4349,15 @@
         <v>411992</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>7</v>
@@ -4354,15 +4366,15 @@
         <v>415225</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>7</v>
@@ -4371,12 +4383,12 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>26</v>
@@ -4388,15 +4400,15 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>7</v>
@@ -4405,15 +4417,15 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>7</v>
@@ -4422,15 +4434,15 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>7</v>
@@ -4439,15 +4451,15 @@
         <v>426323</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>7</v>
@@ -4456,15 +4468,15 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>7</v>
@@ -4473,12 +4485,12 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>30</v>
@@ -4490,15 +4502,15 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>7</v>
@@ -4507,15 +4519,15 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="C152" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>7</v>
@@ -4524,15 +4536,15 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>7</v>
@@ -4541,15 +4553,15 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>7</v>
@@ -4558,15 +4570,15 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>7</v>
@@ -4575,15 +4587,15 @@
         <v>414098</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>7</v>
@@ -4592,15 +4604,15 @@
         <v>420855</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>7</v>
@@ -4609,15 +4621,15 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>7</v>
@@ -4626,15 +4638,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>7</v>
@@ -4643,15 +4655,15 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="C160" s="16" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>7</v>
@@ -4660,15 +4672,15 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>7</v>
@@ -4677,15 +4689,15 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>7</v>
@@ -4694,15 +4706,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>7</v>
@@ -4711,15 +4723,15 @@
         <v>428286</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>7</v>
@@ -4728,15 +4740,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>7</v>
@@ -4745,15 +4757,15 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>7</v>
@@ -4762,15 +4774,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>7</v>
@@ -4779,32 +4791,32 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E168" s="8">
-        <v>417568</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E168" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>7</v>
@@ -4813,15 +4825,15 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>7</v>
@@ -4830,15 +4842,15 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>7</v>
@@ -4847,15 +4859,15 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>7</v>
@@ -4864,15 +4876,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>7</v>
@@ -4881,15 +4893,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>7</v>
@@ -4898,15 +4910,15 @@
         <v>410294</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>7</v>
@@ -4915,15 +4927,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>7</v>
@@ -4932,15 +4944,15 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>7</v>
@@ -4949,15 +4961,15 @@
         <v>440020</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>7</v>
@@ -4966,15 +4978,15 @@
         <v>425684</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>7</v>
@@ -4983,12 +4995,12 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C180" s="17" t="s">
         <v>26</v>
@@ -5000,15 +5012,15 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>7</v>
@@ -5017,29 +5029,29 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>254</v>
+        <v>477</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>26</v>
@@ -5051,15 +5063,15 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B184" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>7</v>
@@ -5068,15 +5080,15 @@
         <v>431120</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>7</v>
@@ -5085,12 +5097,12 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>22</v>
@@ -5102,15 +5114,15 @@
         <v>444440</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D187" s="15" t="s">
         <v>7</v>
@@ -5119,15 +5131,15 @@
         <v>426327</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D188" s="15" t="s">
         <v>7</v>
@@ -5138,13 +5150,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D189" s="15" t="s">
         <v>7</v>
@@ -5153,15 +5165,15 @@
         <v>430023</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D190" s="15" t="s">
         <v>7</v>
@@ -5170,15 +5182,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>7</v>
@@ -5187,15 +5199,15 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C192" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>7</v>
@@ -5204,15 +5216,15 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="15" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>7</v>
@@ -5221,15 +5233,15 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>7</v>
@@ -5238,15 +5250,15 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>7</v>
@@ -5255,15 +5267,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D196" s="15" t="s">
         <v>7</v>
@@ -5272,15 +5284,15 @@
         <v>414757</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D197" s="15" t="s">
         <v>7</v>
@@ -5289,15 +5301,15 @@
         <v>2284667184</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D198" s="15" t="s">
         <v>7</v>
@@ -5306,15 +5318,15 @@
         <v>411874</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>7</v>
@@ -5323,30 +5335,30 @@
         <v>413600</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E200" s="8">
-        <v>443370</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>7</v>
@@ -5355,15 +5367,15 @@
         <v>420973</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D202" s="15" t="s">
         <v>7</v>
@@ -5372,15 +5384,15 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D203" s="15" t="s">
         <v>7</v>
@@ -5389,15 +5401,15 @@
         <v>411765</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>7</v>
@@ -5406,30 +5418,32 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C205" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>263</v>
+      </c>
       <c r="D205" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E205" s="21">
-        <v>2314493035</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E205" s="28">
+        <v>411874</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D206" s="15" t="s">
         <v>7</v>
@@ -5438,15 +5452,15 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D207" s="15" t="s">
         <v>7</v>
@@ -5455,49 +5469,49 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E208" s="8">
         <v>419616</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E209" s="8">
         <v>493603</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>425</v>
+        <v>67</v>
       </c>
       <c r="D210" s="15" t="s">
         <v>7</v>
@@ -5506,15 +5520,15 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D211" s="15" t="s">
         <v>7</v>
@@ -5523,15 +5537,15 @@
         <v>410428</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="D212" s="15" t="s">
         <v>7</v>
@@ -5540,12 +5554,12 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>20</v>
@@ -5557,15 +5571,15 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D214" s="15" t="s">
         <v>7</v>
@@ -5574,15 +5588,15 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>291</v>
+        <v>470</v>
       </c>
       <c r="D215" s="15" t="s">
         <v>7</v>
@@ -5591,15 +5605,15 @@
         <v>425811</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="D216" s="15" t="s">
         <v>7</v>
@@ -5608,15 +5622,15 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D217" s="15" t="s">
         <v>7</v>
@@ -5625,15 +5639,15 @@
         <v>422104</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D218" s="15" t="s">
         <v>7</v>
@@ -5644,47 +5658,47 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D219" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E219" s="22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E219" s="21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E220" s="8">
         <v>492198</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D221" s="15" t="s">
         <v>7</v>
@@ -5693,12 +5707,12 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>26</v>
@@ -5710,15 +5724,15 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D223" s="15" t="s">
         <v>7</v>
@@ -5727,12 +5741,12 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>20</v>
@@ -5744,12 +5758,12 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>30</v>
@@ -5761,15 +5775,15 @@
         <v>15598370</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D226" s="15" t="s">
         <v>7</v>
@@ -5778,15 +5792,15 @@
         <v>414757</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="D227" s="15" t="s">
         <v>7</v>
@@ -5795,15 +5809,15 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D228" s="15" t="s">
         <v>7</v>
@@ -5812,15 +5826,15 @@
         <v>424200</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D229" s="15" t="s">
         <v>7</v>
@@ -5829,15 +5843,15 @@
         <v>410428</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D230" s="15" t="s">
         <v>7</v>
@@ -5846,15 +5860,15 @@
         <v>444195</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D231" s="15" t="s">
         <v>7</v>
@@ -5863,15 +5877,15 @@
         <v>419648</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B232" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D232" s="15" t="s">
         <v>7</v>
@@ -5880,15 +5894,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D233" s="15" t="s">
         <v>7</v>
@@ -5897,15 +5911,15 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D234" s="15" t="s">
         <v>7</v>
@@ -5914,15 +5928,15 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D235" s="15" t="s">
         <v>7</v>
@@ -5931,15 +5945,15 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D236" s="15" t="s">
         <v>7</v>
@@ -5948,15 +5962,15 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D237" s="15" t="s">
         <v>7</v>
@@ -5965,15 +5979,15 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D238" s="15" t="s">
         <v>7</v>
@@ -5982,12 +5996,12 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>20</v>
@@ -5999,30 +6013,30 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D240" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E240" s="8"/>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>7</v>
@@ -6031,42 +6045,46 @@
         <v>427139</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>473</v>
+        <v>309</v>
+      </c>
+      <c r="C242" s="26" t="s">
+        <v>471</v>
       </c>
       <c r="D242" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E242" s="22">
+      <c r="E242" s="21">
         <v>417600</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C243" s="4"/>
+        <v>310</v>
+      </c>
+      <c r="C243" t="s">
+        <v>104</v>
+      </c>
       <c r="D243" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E243" s="8"/>
-    </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E243" s="30">
+        <v>417979</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C244" s="17" t="s">
         <v>22</v>
@@ -6078,15 +6096,15 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D245" s="15" t="s">
         <v>7</v>
@@ -6095,15 +6113,15 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D246" s="15" t="s">
         <v>7</v>
@@ -6112,12 +6130,12 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>22</v>
@@ -6129,15 +6147,15 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D248" s="15" t="s">
         <v>7</v>
@@ -6146,12 +6164,12 @@
         <v>445595</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>26</v>
@@ -6163,15 +6181,15 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="15" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D250" s="15" t="s">
         <v>7</v>
@@ -6180,15 +6198,15 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="15" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>326</v>
+        <v>444</v>
       </c>
       <c r="D251" s="15" t="s">
         <v>7</v>
@@ -6197,15 +6215,15 @@
         <v>417166</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="15" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D252" s="15" t="s">
         <v>7</v>
@@ -6214,15 +6232,15 @@
         <v>422761</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D253" s="15" t="s">
         <v>7</v>
@@ -6231,15 +6249,15 @@
         <v>410890</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="15" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D254" s="15" t="s">
         <v>7</v>
@@ -6248,15 +6266,15 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="15" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D255" s="15" t="s">
         <v>7</v>
@@ -6265,15 +6283,15 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>7</v>
@@ -6282,15 +6300,15 @@
         <v>417979</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>7</v>
@@ -6299,15 +6317,15 @@
         <v>420973</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D258" s="15" t="s">
         <v>7</v>
@@ -6316,12 +6334,12 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>30</v>
@@ -6333,15 +6351,15 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D260" s="15" t="s">
         <v>7</v>
@@ -6350,15 +6368,15 @@
         <v>420973</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>109</v>
+        <v>421</v>
       </c>
       <c r="D261" s="15" t="s">
         <v>7</v>
@@ -6367,15 +6385,15 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="D262" s="15" t="s">
         <v>7</v>
@@ -6384,15 +6402,15 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>7</v>
@@ -6401,15 +6419,15 @@
         <v>413598</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D264" s="15" t="s">
         <v>7</v>
@@ -6418,15 +6436,15 @@
         <v>417979</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D265" s="15" t="s">
         <v>7</v>
@@ -6435,15 +6453,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D266" s="15" t="s">
         <v>7</v>
@@ -6452,15 +6470,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D267" s="15" t="s">
         <v>7</v>
@@ -6469,15 +6487,15 @@
         <v>416999</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D268" s="15" t="s">
         <v>7</v>
@@ -6486,15 +6504,15 @@
         <v>417675</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D269" s="15" t="s">
         <v>7</v>
@@ -6503,15 +6521,15 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D270" s="15" t="s">
         <v>7</v>
@@ -6520,15 +6538,15 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D271" s="15" t="s">
         <v>7</v>
@@ -6537,15 +6555,15 @@
         <v>2284667184</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D272" s="15" t="s">
         <v>7</v>
@@ -6554,15 +6572,15 @@
         <v>420855</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D273" s="15" t="s">
         <v>7</v>
@@ -6571,15 +6589,15 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D274" s="15" t="s">
         <v>7</v>
@@ -6588,15 +6606,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D275" s="15" t="s">
         <v>7</v>
@@ -6605,15 +6623,15 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D276" s="15" t="s">
         <v>7</v>
@@ -6622,15 +6640,15 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D277" s="15" t="s">
         <v>7</v>
@@ -6639,15 +6657,15 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D278" s="15" t="s">
         <v>7</v>
@@ -6656,15 +6674,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D279" s="15" t="s">
         <v>7</v>
@@ -6673,15 +6691,15 @@
         <v>428286</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D280" s="15" t="s">
         <v>7</v>
@@ -6690,15 +6708,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D281" s="15" t="s">
         <v>7</v>
@@ -6707,15 +6725,15 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D282" s="15" t="s">
         <v>7</v>
@@ -6724,15 +6742,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D283" s="15" t="s">
         <v>7</v>
@@ -6741,15 +6759,15 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>7</v>
@@ -6758,15 +6776,15 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>7</v>
@@ -6775,15 +6793,15 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>7</v>
@@ -6792,15 +6810,15 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D287" s="15" t="s">
         <v>7</v>
@@ -6809,15 +6827,15 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D288" s="15" t="s">
         <v>7</v>
@@ -6826,15 +6844,15 @@
         <v>410294</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D289" s="15" t="s">
         <v>7</v>
@@ -6843,15 +6861,15 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D290" s="15" t="s">
         <v>7</v>
@@ -6860,15 +6878,15 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D291" s="15" t="s">
         <v>7</v>
@@ -6877,15 +6895,15 @@
         <v>440020</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D292" s="15" t="s">
         <v>7</v>
@@ -6894,15 +6912,15 @@
         <v>426100</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D293" s="15" t="s">
         <v>7</v>
@@ -6911,32 +6929,32 @@
         <v>416078</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="D294" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E294" s="8">
-        <v>2284663606</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E294" s="28">
+        <v>420870</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D295" s="15" t="s">
         <v>7</v>
@@ -6945,15 +6963,15 @@
         <v>442656</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D296" s="15" t="s">
         <v>7</v>
@@ -6962,15 +6980,15 @@
         <v>416077</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D297" s="15" t="s">
         <v>7</v>
@@ -6979,15 +6997,15 @@
         <v>416077</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="D298" s="15" t="s">
         <v>7</v>
@@ -6996,15 +7014,15 @@
         <v>412994</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D299" s="15" t="s">
         <v>7</v>
@@ -7013,15 +7031,15 @@
         <v>422668</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D300" s="15" t="s">
         <v>7</v>
@@ -7030,15 +7048,15 @@
         <v>440952</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D301" s="15" t="s">
         <v>7</v>
@@ -7047,15 +7065,15 @@
         <v>422668</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D302" s="15" t="s">
         <v>7</v>
@@ -7064,12 +7082,12 @@
         <v>442656</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>20</v>
@@ -7081,12 +7099,12 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>20</v>
@@ -7098,15 +7116,15 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="15" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D305" s="15" t="s">
         <v>7</v>
@@ -7115,15 +7133,15 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D306" s="15" t="s">
         <v>7</v>
@@ -7132,15 +7150,15 @@
         <v>421001</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D307" s="15" t="s">
         <v>7</v>
@@ -7149,15 +7167,15 @@
         <v>421001</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D308" s="15" t="s">
         <v>7</v>
@@ -7166,12 +7184,12 @@
         <v>410772</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>26</v>
@@ -7183,15 +7201,15 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D310" s="15" t="s">
         <v>7</v>
@@ -7200,15 +7218,15 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D311" s="15" t="s">
         <v>7</v>
@@ -7217,15 +7235,15 @@
         <v>440767</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D312" s="15" t="s">
         <v>7</v>
@@ -7234,15 +7252,15 @@
         <v>423506</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B313" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B313" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="C313" s="4" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D313" s="15" t="s">
         <v>7</v>
@@ -7251,15 +7269,15 @@
         <v>427139</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C314" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D314" s="15" t="s">
         <v>7</v>
@@ -7268,15 +7286,15 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D315" s="15" t="s">
         <v>7</v>
@@ -7285,15 +7303,15 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D316" s="15" t="s">
         <v>7</v>
@@ -7302,15 +7320,15 @@
         <v>421001</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="15" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D317" s="15" t="s">
         <v>7</v>
@@ -7319,15 +7337,15 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="15" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D318" s="15" t="s">
         <v>7</v>
@@ -7336,15 +7354,15 @@
         <v>424675</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="15" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D319" s="15" t="s">
         <v>7</v>
@@ -7355,13 +7373,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="15" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D320" s="15" t="s">
         <v>7</v>
@@ -7370,15 +7388,15 @@
         <v>444505</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="15" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D321" s="15" t="s">
         <v>7</v>
@@ -7387,15 +7405,15 @@
         <v>429810</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="15" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D322" s="15" t="s">
         <v>7</v>
@@ -7404,15 +7422,15 @@
         <v>2284590016</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="15" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D323" s="15" t="s">
         <v>7</v>
@@ -7421,15 +7439,15 @@
         <v>411896</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="15" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C324" s="17" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D324" s="15" t="s">
         <v>7</v>
@@ -7438,15 +7456,15 @@
         <v>417979</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="15" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D325" s="15" t="s">
         <v>7</v>
@@ -7455,15 +7473,15 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="15" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D326" s="15" t="s">
         <v>7</v>
@@ -7472,15 +7490,15 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="15" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C327" s="26" t="s">
-        <v>452</v>
+        <v>393</v>
+      </c>
+      <c r="C327" s="25" t="s">
+        <v>438</v>
       </c>
       <c r="D327" s="15" t="s">
         <v>7</v>
@@ -7489,15 +7507,15 @@
         <v>2284382526</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="15" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D328" s="15" t="s">
         <v>7</v>
@@ -7506,15 +7524,15 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="15" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D329" s="15" t="s">
         <v>7</v>
@@ -7523,15 +7541,15 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="15" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D330" s="15" t="s">
         <v>7</v>
@@ -7541,44 +7559,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E330">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="25 DE MAYO 1127"/>
-        <filter val="25 DE MAYO 2506"/>
-        <filter val="25 DE MAYO 3039"/>
-        <filter val="25 DE MAYO 3437"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E330"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/profesionales.xlsx
+++ b/profesionales.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="479">
   <si>
     <t>specialty</t>
   </si>
@@ -1451,6 +1451,9 @@
   </si>
   <si>
     <t>INSTITUTO MEDICO Y MARIA AUXILIADORA</t>
+  </si>
+  <si>
+    <t>IRIGOYEN ESQ. 25 DE MAYO</t>
   </si>
 </sst>
 </file>
@@ -1940,10 +1943,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+      <selection activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1973,7 +1977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>2284579515</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>420672</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2028,7 @@
         <v>420672</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>429810</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>410046</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>429810</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +2096,7 @@
         <v>428784</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -2109,7 +2113,7 @@
         <v>414178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>2284520919</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>416557</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>18</v>
       </c>
@@ -2262,7 +2266,7 @@
         <v>423605</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
@@ -2296,7 +2300,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>18</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>442668</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>423776</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>37</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>417600</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>37</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>424221</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>43</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>424703</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>43</v>
       </c>
@@ -2432,7 +2436,7 @@
         <v>410285</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>43</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>411765</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>43</v>
       </c>
@@ -2466,7 +2470,7 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>43</v>
       </c>
@@ -2483,7 +2487,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>411919</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>43</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>427391</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -2530,7 +2534,7 @@
       </c>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>43</v>
       </c>
@@ -2547,7 +2551,7 @@
         <v>414995</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>43</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>43</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
@@ -2615,7 +2619,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>43</v>
       </c>
@@ -2632,7 +2636,7 @@
         <v>429708</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>43</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>440800</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>43</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>431120</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>43</v>
       </c>
@@ -2683,7 +2687,7 @@
         <v>440800</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>43</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>424200</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>43</v>
       </c>
@@ -2717,7 +2721,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>43</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>43</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>43</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>442400</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>43</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>427139</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>43</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>43</v>
       </c>
@@ -2819,7 +2823,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>43</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>427876</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>43</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>43</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>43</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>418777</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>43</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>43</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>43</v>
       </c>
@@ -2938,7 +2942,7 @@
         <v>424479</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>43</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>422259</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>43</v>
       </c>
@@ -2972,7 +2976,7 @@
         <v>491541</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>43</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>43</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>43</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>43</v>
       </c>
@@ -3048,16 +3052,16 @@
         <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>478</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="30">
-        <v>417979</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2284637026</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>43</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>43</v>
       </c>
@@ -3091,7 +3095,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>43</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>43</v>
       </c>
@@ -3125,7 +3129,7 @@
         <v>414045</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>43</v>
       </c>
@@ -3142,7 +3146,7 @@
         <v>422113</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>43</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>115</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>115</v>
       </c>
@@ -3193,7 +3197,7 @@
         <v>420855</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>115</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>426327</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>115</v>
       </c>
@@ -3227,7 +3231,7 @@
         <v>417166</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>115</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>422761</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>115</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>115</v>
       </c>
@@ -3278,7 +3282,7 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>115</v>
       </c>
@@ -3295,7 +3299,7 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>115</v>
       </c>
@@ -3312,7 +3316,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>115</v>
       </c>
@@ -3329,7 +3333,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>115</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>410890</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>115</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>2284676451</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
         <v>115</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>115</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>115</v>
       </c>
@@ -3414,7 +3418,7 @@
         <v>2284211001</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
         <v>115</v>
       </c>
@@ -3431,7 +3435,7 @@
         <v>493042</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
         <v>115</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>419392</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
         <v>115</v>
       </c>
@@ -3465,7 +3469,7 @@
         <v>2284716838</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>115</v>
       </c>
@@ -3482,7 +3486,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
         <v>115</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>2284211001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
         <v>115</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>456175</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>115</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>419392</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>115</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>115</v>
       </c>
@@ -3567,7 +3571,7 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>115</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
         <v>115</v>
       </c>
@@ -3601,7 +3605,7 @@
         <v>420240</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>115</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>427448</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
         <v>115</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>444925</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
         <v>115</v>
       </c>
@@ -3652,7 +3656,7 @@
         <v>426327</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
         <v>115</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>491093</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>150</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
         <v>150</v>
       </c>
@@ -3703,7 +3707,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
         <v>150</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
         <v>150</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
         <v>150</v>
       </c>
@@ -3754,7 +3758,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>150</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
         <v>150</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>422399</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
         <v>150</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>410497</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
         <v>150</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
         <v>150</v>
       </c>
@@ -3839,7 +3843,7 @@
         <v>442400</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
         <v>150</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
         <v>150</v>
       </c>
@@ -3873,7 +3877,7 @@
         <v>417600</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
         <v>150</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>150</v>
       </c>
@@ -3907,7 +3911,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
         <v>150</v>
       </c>
@@ -3924,7 +3928,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
         <v>150</v>
       </c>
@@ -3941,7 +3945,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
         <v>150</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>428286</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
         <v>150</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
         <v>150</v>
       </c>
@@ -3992,7 +3996,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
         <v>171</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
         <v>171</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>426100</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
         <v>171</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
         <v>171</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>431091</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
         <v>171</v>
       </c>
@@ -4077,7 +4081,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
         <v>171</v>
       </c>
@@ -4094,7 +4098,7 @@
         <v>421100</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
         <v>171</v>
       </c>
@@ -4111,7 +4115,7 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
         <v>179</v>
       </c>
@@ -4128,7 +4132,7 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>179</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
         <v>179</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>444020</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
         <v>179</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>422846</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>179</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
         <v>179</v>
       </c>
@@ -4213,7 +4217,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
         <v>179</v>
       </c>
@@ -4230,7 +4234,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
         <v>179</v>
       </c>
@@ -4247,7 +4251,7 @@
         <v>411992</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>179</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>414500</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
         <v>179</v>
       </c>
@@ -4281,7 +4285,7 @@
         <v>446308</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>179</v>
       </c>
@@ -4298,7 +4302,7 @@
         <v>411992</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
         <v>179</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>422846</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>179</v>
       </c>
@@ -4332,7 +4336,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
         <v>179</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>411992</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>179</v>
       </c>
@@ -4366,7 +4370,7 @@
         <v>415225</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
         <v>179</v>
       </c>
@@ -4383,7 +4387,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>200</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
         <v>179</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
         <v>200</v>
       </c>
@@ -4434,7 +4438,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
         <v>206</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v>426323</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
         <v>209</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
         <v>209</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
         <v>209</v>
       </c>
@@ -4502,7 +4506,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
         <v>209</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
         <v>209</v>
       </c>
@@ -4536,7 +4540,7 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
         <v>209</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
         <v>209</v>
       </c>
@@ -4570,7 +4574,7 @@
         <v>416050</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
         <v>217</v>
       </c>
@@ -4587,7 +4591,7 @@
         <v>414098</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
         <v>219</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>420855</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
         <v>219</v>
       </c>
@@ -4621,7 +4625,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
         <v>219</v>
       </c>
@@ -4638,7 +4642,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
         <v>219</v>
       </c>
@@ -4655,7 +4659,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
         <v>219</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
         <v>219</v>
       </c>
@@ -4689,7 +4693,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
         <v>219</v>
       </c>
@@ -4706,7 +4710,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
         <v>219</v>
       </c>
@@ -4723,7 +4727,7 @@
         <v>428286</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
         <v>219</v>
       </c>
@@ -4740,7 +4744,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
         <v>219</v>
       </c>
@@ -4757,7 +4761,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
         <v>219</v>
       </c>
@@ -4774,7 +4778,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
         <v>219</v>
       </c>
@@ -4791,7 +4795,7 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
         <v>219</v>
       </c>
@@ -4808,7 +4812,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
         <v>219</v>
       </c>
@@ -4825,7 +4829,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
         <v>219</v>
       </c>
@@ -4842,7 +4846,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
         <v>219</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
         <v>219</v>
       </c>
@@ -4876,7 +4880,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
         <v>219</v>
       </c>
@@ -4893,7 +4897,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
         <v>219</v>
       </c>
@@ -4910,7 +4914,7 @@
         <v>410294</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>219</v>
       </c>
@@ -4927,7 +4931,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>219</v>
       </c>
@@ -4944,7 +4948,7 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
         <v>219</v>
       </c>
@@ -4961,7 +4965,7 @@
         <v>440020</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
         <v>241</v>
       </c>
@@ -4978,7 +4982,7 @@
         <v>425684</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>241</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>2284496691</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>241</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>246</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>246</v>
       </c>
@@ -5046,7 +5050,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
         <v>249</v>
       </c>
@@ -5063,7 +5067,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
         <v>249</v>
       </c>
@@ -5080,7 +5084,7 @@
         <v>431120</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
         <v>249</v>
       </c>
@@ -5097,7 +5101,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
         <v>251</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>444440</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
         <v>251</v>
       </c>
@@ -5131,7 +5135,7 @@
         <v>426327</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="15" t="s">
         <v>251</v>
       </c>
@@ -5148,7 +5152,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="15" t="s">
         <v>251</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>430023</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
         <v>251</v>
       </c>
@@ -5182,7 +5186,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="15" t="s">
         <v>251</v>
       </c>
@@ -5199,7 +5203,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="15" t="s">
         <v>251</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="15" t="s">
         <v>251</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="15" t="s">
         <v>257</v>
       </c>
@@ -5250,7 +5254,7 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="15" t="s">
         <v>258</v>
       </c>
@@ -5267,7 +5271,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="15" t="s">
         <v>258</v>
       </c>
@@ -5284,7 +5288,7 @@
         <v>414757</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="15" t="s">
         <v>258</v>
       </c>
@@ -5301,7 +5305,7 @@
         <v>2284667184</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
         <v>258</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>411874</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
         <v>258</v>
       </c>
@@ -5335,7 +5339,7 @@
         <v>413600</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>258</v>
       </c>
@@ -5350,7 +5354,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="15" t="s">
         <v>258</v>
       </c>
@@ -5367,7 +5371,7 @@
         <v>420973</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
         <v>258</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
         <v>258</v>
       </c>
@@ -5401,7 +5405,7 @@
         <v>411765</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="s">
         <v>258</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
         <v>258</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>411874</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
         <v>258</v>
       </c>
@@ -5452,7 +5456,7 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="s">
         <v>258</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="s">
         <v>258</v>
       </c>
@@ -5486,7 +5490,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
         <v>258</v>
       </c>
@@ -5503,7 +5507,7 @@
         <v>493603</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="s">
         <v>258</v>
       </c>
@@ -5520,7 +5524,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="s">
         <v>258</v>
       </c>
@@ -5537,7 +5541,7 @@
         <v>410428</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="s">
         <v>258</v>
       </c>
@@ -5554,7 +5558,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="15" t="s">
         <v>258</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
         <v>258</v>
       </c>
@@ -5588,7 +5592,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
         <v>258</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>425811</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
         <v>258</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
         <v>258</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>422104</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
         <v>258</v>
       </c>
@@ -5656,7 +5660,7 @@
         <v>441169</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
         <v>258</v>
       </c>
@@ -5673,7 +5677,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
         <v>258</v>
       </c>
@@ -5690,7 +5694,7 @@
         <v>492198</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
         <v>258</v>
       </c>
@@ -5707,7 +5711,7 @@
         <v>425698</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
         <v>258</v>
       </c>
@@ -5724,7 +5728,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
         <v>258</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
         <v>258</v>
       </c>
@@ -5758,7 +5762,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
         <v>258</v>
       </c>
@@ -5775,7 +5779,7 @@
         <v>15598370</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
         <v>258</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>414757</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
         <v>258</v>
       </c>
@@ -5809,7 +5813,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
         <v>258</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>424200</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
         <v>258</v>
       </c>
@@ -5843,7 +5847,7 @@
         <v>410428</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
         <v>258</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>444195</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
         <v>258</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>419648</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
         <v>258</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
         <v>258</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
         <v>258</v>
       </c>
@@ -5928,7 +5932,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="15" t="s">
         <v>258</v>
       </c>
@@ -5945,7 +5949,7 @@
         <v>419616</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="15" t="s">
         <v>258</v>
       </c>
@@ -5962,7 +5966,7 @@
         <v>414424</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="15" t="s">
         <v>258</v>
       </c>
@@ -5979,7 +5983,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="15" t="s">
         <v>258</v>
       </c>
@@ -5996,7 +6000,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="15" t="s">
         <v>258</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
         <v>258</v>
       </c>
@@ -6028,7 +6032,7 @@
       </c>
       <c r="E240" s="8"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
         <v>258</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>427139</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
         <v>258</v>
       </c>
@@ -6070,16 +6074,16 @@
         <v>310</v>
       </c>
       <c r="C243" t="s">
-        <v>104</v>
+        <v>478</v>
       </c>
       <c r="D243" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E243" s="30">
-        <v>417979</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2284637026</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
         <v>258</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
         <v>258</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
         <v>258</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>442030</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
         <v>313</v>
       </c>
@@ -6147,7 +6151,7 @@
         <v>414442</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
         <v>313</v>
       </c>
@@ -6164,7 +6168,7 @@
         <v>445595</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="15" t="s">
         <v>313</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="15" t="s">
         <v>316</v>
       </c>
@@ -6198,7 +6202,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="15" t="s">
         <v>316</v>
       </c>
@@ -6215,7 +6219,7 @@
         <v>417166</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="15" t="s">
         <v>316</v>
       </c>
@@ -6232,7 +6236,7 @@
         <v>422761</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="15" t="s">
         <v>316</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>410890</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="15" t="s">
         <v>316</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="15" t="s">
         <v>316</v>
       </c>
@@ -6283,7 +6287,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
         <v>317</v>
       </c>
@@ -6300,7 +6304,7 @@
         <v>417979</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="15" t="s">
         <v>317</v>
       </c>
@@ -6317,7 +6321,7 @@
         <v>420973</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="15" t="s">
         <v>317</v>
       </c>
@@ -6334,7 +6338,7 @@
         <v>440923</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="15" t="s">
         <v>317</v>
       </c>
@@ -6351,7 +6355,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="15" t="s">
         <v>317</v>
       </c>
@@ -6368,7 +6372,7 @@
         <v>420973</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
         <v>317</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
         <v>323</v>
       </c>
@@ -6402,7 +6406,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="15" t="s">
         <v>323</v>
       </c>
@@ -6419,7 +6423,7 @@
         <v>413598</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="15" t="s">
         <v>326</v>
       </c>
@@ -6436,7 +6440,7 @@
         <v>417979</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="15" t="s">
         <v>326</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="15" t="s">
         <v>326</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
         <v>330</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v>416999</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="15" t="s">
         <v>330</v>
       </c>
@@ -6504,7 +6508,7 @@
         <v>417675</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="15" t="s">
         <v>335</v>
       </c>
@@ -6521,7 +6525,7 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
         <v>335</v>
       </c>
@@ -6538,7 +6542,7 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
         <v>335</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>2284667184</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
         <v>339</v>
       </c>
@@ -6572,7 +6576,7 @@
         <v>420855</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="15" t="s">
         <v>339</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="15" t="s">
         <v>339</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="15" t="s">
         <v>339</v>
       </c>
@@ -6623,7 +6627,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="15" t="s">
         <v>339</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>417568</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="15" t="s">
         <v>339</v>
       </c>
@@ -6657,7 +6661,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="15" t="s">
         <v>339</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="15" t="s">
         <v>339</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>428286</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="15" t="s">
         <v>339</v>
       </c>
@@ -6708,7 +6712,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="15" t="s">
         <v>339</v>
       </c>
@@ -6725,7 +6729,7 @@
         <v>422800</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="15" t="s">
         <v>339</v>
       </c>
@@ -6742,7 +6746,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="15" t="s">
         <v>339</v>
       </c>
@@ -6759,7 +6763,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
         <v>339</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>488100</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="15" t="s">
         <v>339</v>
       </c>
@@ -6793,7 +6797,7 @@
         <v>412213</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
         <v>339</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>413100</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
         <v>339</v>
       </c>
@@ -6827,7 +6831,7 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
         <v>339</v>
       </c>
@@ -6844,7 +6848,7 @@
         <v>410294</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
         <v>339</v>
       </c>
@@ -6861,7 +6865,7 @@
         <v>415997</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
         <v>339</v>
       </c>
@@ -6878,7 +6882,7 @@
         <v>420641</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
         <v>339</v>
       </c>
@@ -6895,7 +6899,7 @@
         <v>440020</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
         <v>342</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>426100</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="15" t="s">
         <v>342</v>
       </c>
@@ -6929,7 +6933,7 @@
         <v>416078</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
         <v>342</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>420870</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>342</v>
       </c>
@@ -6963,7 +6967,7 @@
         <v>442656</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>342</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>416077</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
         <v>342</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>416077</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
         <v>342</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>412994</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
         <v>342</v>
       </c>
@@ -7031,7 +7035,7 @@
         <v>422668</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="15" t="s">
         <v>342</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>440952</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
         <v>342</v>
       </c>
@@ -7065,7 +7069,7 @@
         <v>422668</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
         <v>342</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>442656</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
         <v>359</v>
       </c>
@@ -7099,7 +7103,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
         <v>359</v>
       </c>
@@ -7116,7 +7120,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="15" t="s">
         <v>359</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>417589</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="15" t="s">
         <v>363</v>
       </c>
@@ -7150,7 +7154,7 @@
         <v>421001</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="15" t="s">
         <v>363</v>
       </c>
@@ -7167,7 +7171,7 @@
         <v>421001</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="15" t="s">
         <v>363</v>
       </c>
@@ -7184,7 +7188,7 @@
         <v>410772</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="15" t="s">
         <v>363</v>
       </c>
@@ -7201,7 +7205,7 @@
         <v>429603</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="15" t="s">
         <v>363</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>2284598370</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="15" t="s">
         <v>363</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>440767</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="15" t="s">
         <v>363</v>
       </c>
@@ -7252,7 +7256,7 @@
         <v>423506</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="15" t="s">
         <v>363</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>427139</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="15" t="s">
         <v>363</v>
       </c>
@@ -7286,7 +7290,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="15" t="s">
         <v>363</v>
       </c>
@@ -7303,7 +7307,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="15" t="s">
         <v>363</v>
       </c>
@@ -7320,7 +7324,7 @@
         <v>421001</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="15" t="s">
         <v>378</v>
       </c>
@@ -7337,7 +7341,7 @@
         <v>422013</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="15" t="s">
         <v>378</v>
       </c>
@@ -7354,7 +7358,7 @@
         <v>424675</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="15" t="s">
         <v>378</v>
       </c>
@@ -7371,7 +7375,7 @@
         <v>1154057191</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="15" t="s">
         <v>383</v>
       </c>
@@ -7388,7 +7392,7 @@
         <v>444505</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="15" t="s">
         <v>383</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>429810</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="15" t="s">
         <v>386</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>2284590016</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="15" t="s">
         <v>386</v>
       </c>
@@ -7439,7 +7443,7 @@
         <v>411896</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="15" t="s">
         <v>386</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>417979</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="15" t="s">
         <v>389</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>445100</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="15" t="s">
         <v>389</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>442401</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="15" t="s">
         <v>392</v>
       </c>
@@ -7507,7 +7511,7 @@
         <v>2284382526</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="15" t="s">
         <v>392</v>
       </c>
@@ -7524,7 +7528,7 @@
         <v>416002</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="15" t="s">
         <v>392</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>410511</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="15" t="s">
         <v>392</v>
       </c>
@@ -7559,7 +7563,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E330"/>
+  <autoFilter ref="A1:E330">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SARDI NATALIA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
